--- a/yieldFiles/A1/a1_det0.xlsx
+++ b/yieldFiles/A1/a1_det0.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C717"/>
+  <dimension ref="A1:C858"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2330,10 +2330,10 @@
         <v>2.48392</v>
       </c>
       <c r="B179" t="n">
-        <v>9.522432180000001e-13</v>
+        <v>1.89591894e-12</v>
       </c>
       <c r="C179" t="n">
-        <v>1.24167816e-14</v>
+        <v>1.560766122e-14</v>
       </c>
     </row>
     <row r="180">
@@ -2341,10 +2341,10 @@
         <v>2.48392</v>
       </c>
       <c r="B180" t="n">
-        <v>1.89591894e-12</v>
+        <v>9.522432180000001e-13</v>
       </c>
       <c r="C180" t="n">
-        <v>1.560766122e-14</v>
+        <v>1.24167816e-14</v>
       </c>
     </row>
     <row r="181">
@@ -2374,10 +2374,10 @@
         <v>2.48496</v>
       </c>
       <c r="B183" t="n">
-        <v>1.006626312e-12</v>
+        <v>4.99985802e-13</v>
       </c>
       <c r="C183" t="n">
-        <v>1.154474892e-14</v>
+        <v>7.35361254e-15</v>
       </c>
     </row>
     <row r="184">
@@ -2385,10 +2385,10 @@
         <v>2.48496</v>
       </c>
       <c r="B184" t="n">
-        <v>4.99985802e-13</v>
+        <v>1.006626312e-12</v>
       </c>
       <c r="C184" t="n">
-        <v>7.35361254e-15</v>
+        <v>1.154474892e-14</v>
       </c>
     </row>
     <row r="185">
@@ -4695,10 +4695,10 @@
         <v>2.75391</v>
       </c>
       <c r="B394" t="n">
-        <v>1.71500508e-13</v>
+        <v>1.69196832e-13</v>
       </c>
       <c r="C394" t="n">
-        <v>4.55639238e-15</v>
+        <v>6.76128906e-15</v>
       </c>
     </row>
     <row r="395">
@@ -4706,10 +4706,10 @@
         <v>2.75391</v>
       </c>
       <c r="B395" t="n">
-        <v>1.69196832e-13</v>
+        <v>1.71500508e-13</v>
       </c>
       <c r="C395" t="n">
-        <v>6.76128906e-15</v>
+        <v>4.55639238e-15</v>
       </c>
     </row>
     <row r="396">
@@ -5583,2675 +5583,4226 @@
     </row>
     <row r="475">
       <c r="A475" s="1" t="n">
-        <v>2.86985</v>
+        <v>2.86983</v>
       </c>
       <c r="B475" t="n">
-        <v>2.12181696e-13</v>
+        <v>2.69989866e-13</v>
       </c>
       <c r="C475" t="n">
-        <v>8.53771482e-15</v>
+        <v>6.764252760000001e-15</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="1" t="n">
-        <v>2.87044</v>
+        <v>2.86985</v>
       </c>
       <c r="B476" t="n">
-        <v>1.957644e-13</v>
+        <v>2.12181696e-13</v>
       </c>
       <c r="C476" t="n">
-        <v>9.504009180000001e-15</v>
+        <v>8.53771482e-15</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="1" t="n">
-        <v>2.87098</v>
+        <v>2.87044</v>
       </c>
       <c r="B477" t="n">
-        <v>3.41895636e-13</v>
+        <v>1.957644e-13</v>
       </c>
       <c r="C477" t="n">
-        <v>8.334725399999999e-15</v>
+        <v>9.504009180000001e-15</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="1" t="n">
-        <v>2.8711</v>
+        <v>2.87079</v>
       </c>
       <c r="B478" t="n">
-        <v>2.5938783e-13</v>
+        <v>4.309091640000001e-13</v>
       </c>
       <c r="C478" t="n">
-        <v>9.310503600000001e-15</v>
+        <v>1.78906554e-14</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="1" t="n">
-        <v>2.87156</v>
+        <v>2.87098</v>
       </c>
       <c r="B479" t="n">
-        <v>3.41227602e-13</v>
+        <v>3.41895636e-13</v>
       </c>
       <c r="C479" t="n">
-        <v>1.009117422e-14</v>
+        <v>8.334725399999999e-15</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="1" t="n">
-        <v>2.87192</v>
+        <v>2.8711</v>
       </c>
       <c r="B480" t="n">
-        <v>4.16790738e-13</v>
+        <v>2.5938783e-13</v>
       </c>
       <c r="C480" t="n">
-        <v>1.20279762e-14</v>
+        <v>9.310503600000001e-15</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="1" t="n">
-        <v>2.87203</v>
+        <v>2.87156</v>
       </c>
       <c r="B481" t="n">
-        <v>3.52074744e-13</v>
+        <v>3.41227602e-13</v>
       </c>
       <c r="C481" t="n">
-        <v>1.226025018e-14</v>
+        <v>1.009117422e-14</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="1" t="n">
-        <v>2.87225</v>
+        <v>2.87192</v>
       </c>
       <c r="B482" t="n">
-        <v>4.12301934e-13</v>
+        <v>4.16790738e-13</v>
       </c>
       <c r="C482" t="n">
-        <v>1.193435532e-14</v>
+        <v>1.20279762e-14</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="1" t="n">
-        <v>2.8725</v>
+        <v>2.87192</v>
       </c>
       <c r="B483" t="n">
-        <v>4.19236992e-13</v>
+        <v>4.12040808e-13</v>
       </c>
       <c r="C483" t="n">
-        <v>1.37191275e-14</v>
+        <v>1.66064922e-14</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="1" t="n">
-        <v>2.87281</v>
+        <v>2.87203</v>
       </c>
       <c r="B484" t="n">
-        <v>3.81048516e-13</v>
+        <v>3.52074744e-13</v>
       </c>
       <c r="C484" t="n">
-        <v>1.544177412e-14</v>
+        <v>1.226025018e-14</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="1" t="n">
-        <v>2.87297</v>
+        <v>2.87225</v>
       </c>
       <c r="B485" t="n">
-        <v>4.06952856e-13</v>
+        <v>4.12301934e-13</v>
       </c>
       <c r="C485" t="n">
-        <v>1.085351796e-14</v>
+        <v>1.193435532e-14</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="1" t="n">
-        <v>2.87318</v>
+        <v>2.8725</v>
       </c>
       <c r="B486" t="n">
-        <v>3.73996512e-13</v>
+        <v>4.19236992e-13</v>
       </c>
       <c r="C486" t="n">
-        <v>1.273094982e-14</v>
+        <v>1.37191275e-14</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="1" t="n">
-        <v>2.87337</v>
+        <v>2.87281</v>
       </c>
       <c r="B487" t="n">
-        <v>3.79219032e-13</v>
+        <v>3.81048516e-13</v>
       </c>
       <c r="C487" t="n">
-        <v>1.267306956e-14</v>
+        <v>1.544177412e-14</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="1" t="n">
-        <v>2.87386</v>
+        <v>2.87288</v>
       </c>
       <c r="B488" t="n">
-        <v>2.61289404e-13</v>
+        <v>3.0808863e-13</v>
       </c>
       <c r="C488" t="n">
-        <v>8.606969279999999e-15</v>
+        <v>2.18057832e-14</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="1" t="n">
-        <v>2.87398</v>
+        <v>2.87297</v>
       </c>
       <c r="B489" t="n">
-        <v>2.922112080000001e-13</v>
+        <v>4.06952856e-13</v>
       </c>
       <c r="C489" t="n">
-        <v>1.367904546e-14</v>
+        <v>1.085351796e-14</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="1" t="n">
-        <v>2.87487</v>
+        <v>2.87318</v>
       </c>
       <c r="B490" t="n">
-        <v>2.26216818e-13</v>
+        <v>3.73996512e-13</v>
       </c>
       <c r="C490" t="n">
-        <v>1.1802735e-14</v>
+        <v>1.273094982e-14</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="1" t="n">
-        <v>2.87584</v>
+        <v>2.87337</v>
       </c>
       <c r="B491" t="n">
-        <v>1.72820556e-13</v>
+        <v>3.79219032e-13</v>
       </c>
       <c r="C491" t="n">
-        <v>5.58796824e-15</v>
+        <v>1.267306956e-14</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="1" t="n">
-        <v>2.87602</v>
+        <v>2.87386</v>
       </c>
       <c r="B492" t="n">
-        <v>1.9455489e-13</v>
+        <v>2.61289404e-13</v>
       </c>
       <c r="C492" t="n">
-        <v>4.0030776e-15</v>
+        <v>8.606969279999999e-15</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="1" t="n">
-        <v>2.87699</v>
+        <v>2.87398</v>
       </c>
       <c r="B493" t="n">
-        <v>1.65098916e-13</v>
+        <v>2.922112080000001e-13</v>
       </c>
       <c r="C493" t="n">
-        <v>5.8902336e-15</v>
+        <v>1.367904546e-14</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="1" t="n">
-        <v>2.87795</v>
+        <v>2.87412</v>
       </c>
       <c r="B494" t="n">
-        <v>2.38359978e-13</v>
+        <v>2.651358059999999e-13</v>
       </c>
       <c r="C494" t="n">
-        <v>9.048672719999999e-15</v>
+        <v>1.421098956e-14</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="1" t="n">
-        <v>2.87894</v>
+        <v>2.8748</v>
       </c>
       <c r="B495" t="n">
-        <v>2.75097042e-13</v>
+        <v>2.34157932e-13</v>
       </c>
       <c r="C495" t="n">
-        <v>1.133749818e-14</v>
+        <v>1.98756936e-14</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="1" t="n">
-        <v>2.87894</v>
+        <v>2.87487</v>
       </c>
       <c r="B496" t="n">
-        <v>2.69230518e-13</v>
+        <v>2.26216818e-13</v>
       </c>
       <c r="C496" t="n">
-        <v>7.213533660000001e-15</v>
+        <v>1.1802735e-14</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="1" t="n">
-        <v>2.87999</v>
+        <v>2.87584</v>
       </c>
       <c r="B497" t="n">
-        <v>2.13437664e-13</v>
+        <v>1.72820556e-13</v>
       </c>
       <c r="C497" t="n">
-        <v>6.299192159999999e-15</v>
+        <v>5.58796824e-15</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="1" t="n">
-        <v>2.88082</v>
+        <v>2.87591</v>
       </c>
       <c r="B498" t="n">
-        <v>1.162726794e-13</v>
+        <v>2.01070224e-13</v>
       </c>
       <c r="C498" t="n">
-        <v>8.53375788e-15</v>
+        <v>1.62075942e-14</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="1" t="n">
-        <v>2.88879</v>
+        <v>2.87602</v>
       </c>
       <c r="B499" t="n">
-        <v>9.3395799e-14</v>
+        <v>1.9455489e-13</v>
       </c>
       <c r="C499" t="n">
-        <v>5.15030184e-15</v>
+        <v>4.0030776e-15</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="1" t="n">
-        <v>2.90444</v>
+        <v>2.87685</v>
       </c>
       <c r="B500" t="n">
-        <v>2.0330982e-13</v>
+        <v>1.86892524e-13</v>
       </c>
       <c r="C500" t="n">
-        <v>7.33973922e-15</v>
+        <v>1.82626398e-14</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="1" t="n">
-        <v>2.90481</v>
+        <v>2.87699</v>
       </c>
       <c r="B501" t="n">
-        <v>3.45397608e-13</v>
+        <v>1.65098916e-13</v>
       </c>
       <c r="C501" t="n">
-        <v>9.89573022e-15</v>
+        <v>5.8902336e-15</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="1" t="n">
-        <v>2.90576</v>
+        <v>2.87795</v>
       </c>
       <c r="B502" t="n">
-        <v>1.7923176e-12</v>
+        <v>2.38359978e-13</v>
       </c>
       <c r="C502" t="n">
-        <v>3.88209456e-14</v>
+        <v>9.048672719999999e-15</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="1" t="n">
-        <v>2.90595</v>
+        <v>2.87802</v>
       </c>
       <c r="B503" t="n">
-        <v>2.93777964e-12</v>
+        <v>3.598893e-13</v>
       </c>
       <c r="C503" t="n">
-        <v>3.89811456e-14</v>
+        <v>1.00234737e-14</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="1" t="n">
-        <v>2.90595</v>
+        <v>2.8788</v>
       </c>
       <c r="B504" t="n">
-        <v>2.73179448e-12</v>
+        <v>1.91426184e-13</v>
       </c>
       <c r="C504" t="n">
-        <v>2.63607498e-14</v>
+        <v>1.22632299e-14</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="1" t="n">
-        <v>2.90644</v>
+        <v>2.87894</v>
       </c>
       <c r="B505" t="n">
-        <v>1.572990984e-12</v>
+        <v>2.69230518e-13</v>
       </c>
       <c r="C505" t="n">
-        <v>3.54461724e-14</v>
+        <v>7.213533660000001e-15</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="1" t="n">
-        <v>2.90675</v>
+        <v>2.87894</v>
       </c>
       <c r="B506" t="n">
-        <v>2.86267788e-12</v>
+        <v>2.75097042e-13</v>
       </c>
       <c r="C506" t="n">
-        <v>3.75238062e-14</v>
+        <v>1.133749818e-14</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="1" t="n">
-        <v>2.90706</v>
+        <v>2.87999</v>
       </c>
       <c r="B507" t="n">
-        <v>1.7070111e-12</v>
+        <v>2.13437664e-13</v>
       </c>
       <c r="C507" t="n">
-        <v>4.01975442e-14</v>
+        <v>6.299192159999999e-15</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="1" t="n">
-        <v>2.90739</v>
+        <v>2.88082</v>
       </c>
       <c r="B508" t="n">
-        <v>7.609612139999998e-13</v>
+        <v>1.162726794e-13</v>
       </c>
       <c r="C508" t="n">
-        <v>1.76618898e-14</v>
+        <v>8.53375788e-15</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="1" t="n">
-        <v>2.90788</v>
+        <v>2.88098</v>
       </c>
       <c r="B509" t="n">
-        <v>4.57652952e-13</v>
+        <v>1.544674032e-13</v>
       </c>
       <c r="C509" t="n">
-        <v>8.41652352e-15</v>
+        <v>1.319171706e-14</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="1" t="n">
-        <v>2.9085</v>
+        <v>2.88879</v>
       </c>
       <c r="B510" t="n">
-        <v>3.46129722e-13</v>
+        <v>9.3395799e-14</v>
       </c>
       <c r="C510" t="n">
-        <v>9.71130798e-15</v>
+        <v>5.15030184e-15</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="1" t="n">
-        <v>2.90904</v>
+        <v>2.90444</v>
       </c>
       <c r="B511" t="n">
-        <v>2.6461035e-13</v>
+        <v>2.0330982e-13</v>
       </c>
       <c r="C511" t="n">
-        <v>5.9815476e-15</v>
+        <v>7.33973922e-15</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="1" t="n">
-        <v>2.90949</v>
+        <v>2.90481</v>
       </c>
       <c r="B512" t="n">
-        <v>2.0817189e-13</v>
+        <v>3.45397608e-13</v>
       </c>
       <c r="C512" t="n">
-        <v>5.41722708e-15</v>
+        <v>9.89573022e-15</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="1" t="n">
-        <v>2.91001</v>
+        <v>2.90576</v>
       </c>
       <c r="B513" t="n">
-        <v>1.7718921e-13</v>
+        <v>1.7923176e-12</v>
       </c>
       <c r="C513" t="n">
-        <v>5.08832046e-15</v>
+        <v>3.88209456e-14</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="1" t="n">
-        <v>2.91027</v>
+        <v>2.90595</v>
       </c>
       <c r="B514" t="n">
-        <v>1.565991846e-13</v>
+        <v>2.73179448e-12</v>
       </c>
       <c r="C514" t="n">
-        <v>4.90391424e-15</v>
+        <v>2.63607498e-14</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="1" t="n">
-        <v>2.9115</v>
+        <v>2.90595</v>
       </c>
       <c r="B515" t="n">
-        <v>1.218180024e-13</v>
+        <v>2.93777964e-12</v>
       </c>
       <c r="C515" t="n">
-        <v>4.01331438e-15</v>
+        <v>3.89811456e-14</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="1" t="n">
-        <v>2.91247</v>
+        <v>2.90644</v>
       </c>
       <c r="B516" t="n">
-        <v>1.039414446e-13</v>
+        <v>1.572990984e-12</v>
       </c>
       <c r="C516" t="n">
-        <v>4.24925694e-15</v>
+        <v>3.54461724e-14</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="1" t="n">
-        <v>2.91341</v>
+        <v>2.90675</v>
       </c>
       <c r="B517" t="n">
-        <v>9.668262239999999e-14</v>
+        <v>2.86267788e-12</v>
       </c>
       <c r="C517" t="n">
-        <v>3.9772854e-15</v>
+        <v>3.75238062e-14</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="1" t="n">
-        <v>2.91393</v>
+        <v>2.90706</v>
       </c>
       <c r="B518" t="n">
-        <v>8.650928159999999e-14</v>
+        <v>1.7070111e-12</v>
       </c>
       <c r="C518" t="n">
-        <v>3.4360497e-15</v>
+        <v>4.01975442e-14</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="1" t="n">
-        <v>2.91445</v>
+        <v>2.90739</v>
       </c>
       <c r="B519" t="n">
-        <v>1.54361511e-13</v>
+        <v>7.609612139999998e-13</v>
       </c>
       <c r="C519" t="n">
-        <v>5.64234012e-15</v>
+        <v>1.76618898e-14</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="1" t="n">
-        <v>2.91504</v>
+        <v>2.90788</v>
       </c>
       <c r="B520" t="n">
-        <v>3.44577384e-13</v>
+        <v>4.57652952e-13</v>
       </c>
       <c r="C520" t="n">
-        <v>8.714912039999999e-15</v>
+        <v>8.41652352e-15</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="1" t="n">
-        <v>2.91537</v>
+        <v>2.9085</v>
       </c>
       <c r="B521" t="n">
-        <v>1.284105528e-12</v>
+        <v>3.46129722e-13</v>
       </c>
       <c r="C521" t="n">
-        <v>2.0173185e-14</v>
+        <v>9.71130798e-15</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="1" t="n">
-        <v>2.91549</v>
+        <v>2.90904</v>
       </c>
       <c r="B522" t="n">
-        <v>1.429861896e-12</v>
+        <v>2.6461035e-13</v>
       </c>
       <c r="C522" t="n">
-        <v>1.83307248e-14</v>
+        <v>5.9815476e-15</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="1" t="n">
-        <v>2.91566</v>
+        <v>2.90949</v>
       </c>
       <c r="B523" t="n">
-        <v>1.172604726e-12</v>
+        <v>2.0817189e-13</v>
       </c>
       <c r="C523" t="n">
-        <v>2.35447542e-14</v>
+        <v>5.41722708e-15</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="1" t="n">
-        <v>2.91585</v>
+        <v>2.91001</v>
       </c>
       <c r="B524" t="n">
-        <v>7.781538780000001e-13</v>
+        <v>1.7718921e-13</v>
       </c>
       <c r="C524" t="n">
-        <v>1.61319798e-14</v>
+        <v>5.08832046e-15</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="1" t="n">
-        <v>2.91604</v>
+        <v>2.91027</v>
       </c>
       <c r="B525" t="n">
-        <v>4.77349542e-13</v>
+        <v>1.565991846e-13</v>
       </c>
       <c r="C525" t="n">
-        <v>1.201943754e-14</v>
+        <v>4.90391424e-15</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="1" t="n">
-        <v>2.91648</v>
+        <v>2.9115</v>
       </c>
       <c r="B526" t="n">
-        <v>2.25287658e-13</v>
+        <v>1.218180024e-13</v>
       </c>
       <c r="C526" t="n">
-        <v>6.202175039999999e-15</v>
+        <v>4.01331438e-15</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="1" t="n">
-        <v>2.91693</v>
+        <v>2.91247</v>
       </c>
       <c r="B527" t="n">
-        <v>1.82238714e-13</v>
+        <v>1.039414446e-13</v>
       </c>
       <c r="C527" t="n">
-        <v>5.0636817e-15</v>
+        <v>4.24925694e-15</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="1" t="n">
-        <v>2.91745</v>
+        <v>2.91341</v>
       </c>
       <c r="B528" t="n">
-        <v>1.146091626e-13</v>
+        <v>9.668262239999999e-14</v>
       </c>
       <c r="C528" t="n">
-        <v>2.79545796e-15</v>
+        <v>3.9772854e-15</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="1" t="n">
-        <v>2.91793</v>
+        <v>2.91393</v>
       </c>
       <c r="B529" t="n">
-        <v>1.005698754e-13</v>
+        <v>8.650928159999999e-14</v>
       </c>
       <c r="C529" t="n">
-        <v>3.70480122e-15</v>
+        <v>3.4360497e-15</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="1" t="n">
-        <v>2.9184</v>
+        <v>2.91445</v>
       </c>
       <c r="B530" t="n">
-        <v>8.63522856e-14</v>
+        <v>1.54361511e-13</v>
       </c>
       <c r="C530" t="n">
-        <v>2.49835104e-15</v>
+        <v>5.64234012e-15</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="1" t="n">
-        <v>2.91892</v>
+        <v>2.91504</v>
       </c>
       <c r="B531" t="n">
-        <v>6.970814639999999e-14</v>
+        <v>3.44577384e-13</v>
       </c>
       <c r="C531" t="n">
-        <v>2.41884378e-15</v>
+        <v>8.714912039999999e-15</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="1" t="n">
-        <v>2.91946</v>
+        <v>2.91537</v>
       </c>
       <c r="B532" t="n">
-        <v>6.483998880000001e-14</v>
+        <v>1.284105528e-12</v>
       </c>
       <c r="C532" t="n">
-        <v>2.03192874e-15</v>
+        <v>2.0173185e-14</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="1" t="n">
-        <v>2.91991</v>
+        <v>2.91549</v>
       </c>
       <c r="B533" t="n">
-        <v>6.323766840000001e-14</v>
+        <v>1.429861896e-12</v>
       </c>
       <c r="C533" t="n">
-        <v>2.30152932e-15</v>
+        <v>1.83307248e-14</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="1" t="n">
-        <v>2.92043</v>
+        <v>2.91566</v>
       </c>
       <c r="B534" t="n">
-        <v>6.02033202e-14</v>
+        <v>1.172604726e-12</v>
       </c>
       <c r="C534" t="n">
-        <v>2.3543793e-15</v>
+        <v>2.35447542e-14</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="1" t="n">
-        <v>2.92084</v>
+        <v>2.91585</v>
       </c>
       <c r="B535" t="n">
-        <v>5.48758692e-14</v>
+        <v>7.781538780000001e-13</v>
       </c>
       <c r="C535" t="n">
-        <v>2.2712355e-15</v>
+        <v>1.61319798e-14</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="1" t="n">
-        <v>2.92143</v>
+        <v>2.91604</v>
       </c>
       <c r="B536" t="n">
-        <v>5.68360764e-14</v>
+        <v>4.77349542e-13</v>
       </c>
       <c r="C536" t="n">
-        <v>2.31428124e-15</v>
+        <v>1.201943754e-14</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="1" t="n">
-        <v>2.9219</v>
+        <v>2.91648</v>
       </c>
       <c r="B537" t="n">
-        <v>5.720565780000001e-14</v>
+        <v>2.25287658e-13</v>
       </c>
       <c r="C537" t="n">
-        <v>2.51387442e-15</v>
+        <v>6.202175039999999e-15</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="1" t="n">
-        <v>2.92247</v>
+        <v>2.91693</v>
       </c>
       <c r="B538" t="n">
-        <v>5.02614684e-14</v>
+        <v>1.82238714e-13</v>
       </c>
       <c r="C538" t="n">
-        <v>2.18966166e-15</v>
+        <v>5.0636817e-15</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="1" t="n">
-        <v>2.92297</v>
+        <v>2.91745</v>
       </c>
       <c r="B539" t="n">
-        <v>4.89340512e-14</v>
+        <v>1.146091626e-13</v>
       </c>
       <c r="C539" t="n">
-        <v>2.81940786e-15</v>
+        <v>2.79545796e-15</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="1" t="n">
-        <v>2.92346</v>
+        <v>2.91793</v>
       </c>
       <c r="B540" t="n">
-        <v>5.130949680000001e-14</v>
+        <v>1.005698754e-13</v>
       </c>
       <c r="C540" t="n">
-        <v>2.77798014e-15</v>
+        <v>3.70480122e-15</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="1" t="n">
-        <v>2.92583</v>
+        <v>2.9184</v>
       </c>
       <c r="B541" t="n">
-        <v>5.11803756e-14</v>
+        <v>8.63522856e-14</v>
       </c>
       <c r="C541" t="n">
-        <v>2.37826512e-15</v>
+        <v>2.49835104e-15</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="1" t="n">
-        <v>2.92979</v>
+        <v>2.91892</v>
       </c>
       <c r="B542" t="n">
-        <v>5.1065352e-14</v>
+        <v>6.970814639999999e-14</v>
       </c>
       <c r="C542" t="n">
-        <v>2.673113219999999e-15</v>
+        <v>2.41884378e-15</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="1" t="n">
-        <v>2.93966</v>
+        <v>2.91946</v>
       </c>
       <c r="B543" t="n">
-        <v>7.73671482e-14</v>
+        <v>6.483998880000001e-14</v>
       </c>
       <c r="C543" t="n">
-        <v>2.76884874e-15</v>
+        <v>2.03192874e-15</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="1" t="n">
-        <v>2.95006</v>
+        <v>2.91991</v>
       </c>
       <c r="B544" t="n">
-        <v>1.50455034e-13</v>
+        <v>6.323766840000001e-14</v>
       </c>
       <c r="C544" t="n">
-        <v>3.76944192e-15</v>
+        <v>2.30152932e-15</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="1" t="n">
-        <v>2.9597</v>
+        <v>2.92043</v>
       </c>
       <c r="B545" t="n">
-        <v>1.523031012e-13</v>
+        <v>6.02033202e-14</v>
       </c>
       <c r="C545" t="n">
-        <v>3.9314682e-15</v>
+        <v>2.3543793e-15</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="1" t="n">
-        <v>2.96984</v>
+        <v>2.92084</v>
       </c>
       <c r="B546" t="n">
-        <v>1.230871068e-13</v>
+        <v>5.48758692e-14</v>
       </c>
       <c r="C546" t="n">
-        <v>3.1156497e-15</v>
+        <v>2.2712355e-15</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="1" t="n">
-        <v>2.97979</v>
+        <v>2.92143</v>
       </c>
       <c r="B547" t="n">
-        <v>1.279639152e-13</v>
+        <v>5.68360764e-14</v>
       </c>
       <c r="C547" t="n">
-        <v>3.6523998e-15</v>
+        <v>2.31428124e-15</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="1" t="n">
-        <v>2.98967</v>
+        <v>2.9219</v>
       </c>
       <c r="B548" t="n">
-        <v>1.7041275e-13</v>
+        <v>5.720565780000001e-14</v>
       </c>
       <c r="C548" t="n">
-        <v>4.12782534e-15</v>
+        <v>2.51387442e-15</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="1" t="n">
-        <v>2.99885</v>
+        <v>2.92247</v>
       </c>
       <c r="B549" t="n">
-        <v>2.93065074e-13</v>
+        <v>5.02614684e-14</v>
       </c>
       <c r="C549" t="n">
-        <v>9.98448102e-15</v>
+        <v>2.18966166e-15</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="1" t="n">
-        <v>2.99993</v>
+        <v>2.92297</v>
       </c>
       <c r="B550" t="n">
-        <v>3.45469698e-13</v>
+        <v>4.89340512e-14</v>
       </c>
       <c r="C550" t="n">
-        <v>8.146041839999998e-15</v>
+        <v>2.81940786e-15</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="1" t="n">
-        <v>3.00403</v>
+        <v>2.92346</v>
       </c>
       <c r="B551" t="n">
-        <v>4.76708742e-13</v>
+        <v>5.130949680000001e-14</v>
       </c>
       <c r="C551" t="n">
-        <v>9.375576839999998e-15</v>
+        <v>2.77798014e-15</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>3.00807</v>
+        <v>2.92583</v>
       </c>
       <c r="B552" t="n">
-        <v>7.12114632e-13</v>
+        <v>5.11803756e-14</v>
       </c>
       <c r="C552" t="n">
-        <v>1.300790358e-14</v>
+        <v>2.37826512e-15</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>3.01001</v>
+        <v>2.92979</v>
       </c>
       <c r="B553" t="n">
-        <v>9.42669666e-13</v>
+        <v>5.1065352e-14</v>
       </c>
       <c r="C553" t="n">
-        <v>1.186394742e-14</v>
+        <v>2.673113219999999e-15</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>3.01128</v>
+        <v>2.93966</v>
       </c>
       <c r="B554" t="n">
-        <v>1.206873108e-12</v>
+        <v>7.73671482e-14</v>
       </c>
       <c r="C554" t="n">
-        <v>1.82189052e-14</v>
+        <v>2.76884874e-15</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>3.01174</v>
+        <v>2.95006</v>
       </c>
       <c r="B555" t="n">
-        <v>1.286756838e-12</v>
+        <v>1.50455034e-13</v>
       </c>
       <c r="C555" t="n">
-        <v>1.85649372e-14</v>
+        <v>3.76944192e-15</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>3.01205</v>
+        <v>2.9597</v>
       </c>
       <c r="B556" t="n">
-        <v>1.361951514e-12</v>
+        <v>1.523031012e-13</v>
       </c>
       <c r="C556" t="n">
-        <v>1.9413837e-14</v>
+        <v>3.9314682e-15</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>3.01229</v>
+        <v>2.96984</v>
       </c>
       <c r="B557" t="n">
-        <v>1.475235342e-12</v>
+        <v>1.230871068e-13</v>
       </c>
       <c r="C557" t="n">
-        <v>1.80880218e-14</v>
+        <v>3.1156497e-15</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>3.01249</v>
+        <v>2.97074</v>
       </c>
       <c r="B558" t="n">
-        <v>1.532490822e-12</v>
+        <v>1.481186772e-13</v>
       </c>
       <c r="C558" t="n">
-        <v>2.06935146e-14</v>
+        <v>8.47993068e-15</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
-        <v>3.01268</v>
+        <v>2.97979</v>
       </c>
       <c r="B559" t="n">
-        <v>1.538716194e-12</v>
+        <v>1.279639152e-13</v>
       </c>
       <c r="C559" t="n">
-        <v>1.80925074e-14</v>
+        <v>3.6523998e-15</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
-        <v>3.01299</v>
+        <v>2.98023</v>
       </c>
       <c r="B560" t="n">
-        <v>1.60981776e-12</v>
+        <v>1.412749332e-13</v>
       </c>
       <c r="C560" t="n">
-        <v>2.05386012e-14</v>
+        <v>7.26704046e-15</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
-        <v>3.01352</v>
+        <v>2.98967</v>
       </c>
       <c r="B561" t="n">
-        <v>1.60845606e-12</v>
+        <v>1.7041275e-13</v>
       </c>
       <c r="C561" t="n">
-        <v>1.96823322e-14</v>
+        <v>4.12782534e-15</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
-        <v>3.01388</v>
+        <v>2.99092</v>
       </c>
       <c r="B562" t="n">
-        <v>1.566645462e-12</v>
+        <v>2.03923386e-13</v>
       </c>
       <c r="C562" t="n">
-        <v>1.93387032e-14</v>
+        <v>9.11007738e-15</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
-        <v>3.01436</v>
+        <v>2.99494</v>
       </c>
       <c r="B563" t="n">
-        <v>1.454654448e-12</v>
+        <v>2.43004176e-13</v>
       </c>
       <c r="C563" t="n">
-        <v>1.76441076e-14</v>
+        <v>9.396226619999999e-15</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
-        <v>3.01501</v>
+        <v>2.99885</v>
       </c>
       <c r="B564" t="n">
-        <v>1.240265196e-12</v>
+        <v>2.93065074e-13</v>
       </c>
       <c r="C564" t="n">
-        <v>1.92124656e-14</v>
+        <v>9.98448102e-15</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
-        <v>3.01551</v>
+        <v>2.9989</v>
       </c>
       <c r="B565" t="n">
-        <v>1.04315031e-12</v>
+        <v>3.1023531e-13</v>
       </c>
       <c r="C565" t="n">
-        <v>1.451405592e-14</v>
+        <v>1.326033072e-14</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
-        <v>3.01607</v>
+        <v>2.99991</v>
       </c>
       <c r="B566" t="n">
-        <v>9.08404488e-13</v>
+        <v>3.8967849e-13</v>
       </c>
       <c r="C566" t="n">
-        <v>1.312257474e-14</v>
+        <v>1.327579002e-14</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
-        <v>3.0165</v>
+        <v>2.99993</v>
       </c>
       <c r="B567" t="n">
-        <v>7.898564880000001e-13</v>
+        <v>3.45469698e-13</v>
       </c>
       <c r="C567" t="n">
-        <v>1.381838742e-14</v>
+        <v>8.146041839999998e-15</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
-        <v>3.01703</v>
+        <v>3.00139</v>
       </c>
       <c r="B568" t="n">
-        <v>7.071420239999999e-13</v>
+        <v>4.0750074e-13</v>
       </c>
       <c r="C568" t="n">
-        <v>1.111808826e-14</v>
+        <v>9.800235e-15</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
-        <v>3.01753</v>
+        <v>3.00252</v>
       </c>
       <c r="B569" t="n">
-        <v>6.33989898e-13</v>
+        <v>4.30210692e-13</v>
       </c>
       <c r="C569" t="n">
-        <v>9.21073104e-15</v>
+        <v>1.027676592e-14</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
-        <v>3.01809</v>
+        <v>3.00336</v>
       </c>
       <c r="B570" t="n">
-        <v>5.647722839999999e-13</v>
+        <v>4.46198652e-13</v>
       </c>
       <c r="C570" t="n">
-        <v>9.81031158e-15</v>
+        <v>1.352094408e-14</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
-        <v>3.01857</v>
+        <v>3.00403</v>
       </c>
       <c r="B571" t="n">
-        <v>5.095209060000001e-13</v>
+        <v>4.76708742e-13</v>
       </c>
       <c r="C571" t="n">
-        <v>1.25379729e-14</v>
+        <v>9.375576839999998e-15</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
-        <v>3.01898</v>
+        <v>3.00434</v>
       </c>
       <c r="B572" t="n">
-        <v>4.73698584e-13</v>
+        <v>5.00855688e-13</v>
       </c>
       <c r="C572" t="n">
-        <v>1.232599626e-14</v>
+        <v>1.529431002e-14</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
-        <v>3.02004</v>
+        <v>3.0055</v>
       </c>
       <c r="B573" t="n">
-        <v>4.16950938e-13</v>
+        <v>5.6165319e-13</v>
       </c>
       <c r="C573" t="n">
-        <v>1.230388866e-14</v>
+        <v>9.992555100000001e-15</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
-        <v>3.02218</v>
+        <v>3.00638</v>
       </c>
       <c r="B574" t="n">
-        <v>3.25763496e-13</v>
+        <v>6.090980220000001e-13</v>
       </c>
       <c r="C574" t="n">
-        <v>1.085294124e-14</v>
+        <v>1.050010074e-14</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
-        <v>3.02586</v>
+        <v>3.00754</v>
       </c>
       <c r="B575" t="n">
-        <v>2.739323880000001e-13</v>
+        <v>6.8267628e-13</v>
       </c>
       <c r="C575" t="n">
-        <v>1.06516179e-14</v>
+        <v>1.016368074e-14</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="1" t="n">
-        <v>3.02991</v>
+        <v>3.00807</v>
       </c>
       <c r="B576" t="n">
-        <v>2.57362902e-13</v>
+        <v>7.12114632e-13</v>
       </c>
       <c r="C576" t="n">
-        <v>9.25300782e-15</v>
+        <v>1.300790358e-14</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
-        <v>3.03203</v>
+        <v>3.00843</v>
       </c>
       <c r="B577" t="n">
-        <v>2.91519144e-13</v>
+        <v>7.72199244e-13</v>
       </c>
       <c r="C577" t="n">
-        <v>7.526676600000001e-15</v>
+        <v>1.142748252e-14</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="1" t="n">
-        <v>3.033</v>
+        <v>3.00955</v>
       </c>
       <c r="B578" t="n">
-        <v>3.17449116e-13</v>
+        <v>9.280017539999998e-13</v>
       </c>
       <c r="C578" t="n">
-        <v>1.09978101e-14</v>
+        <v>1.339799058e-14</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="1" t="n">
-        <v>3.0336</v>
+        <v>3.01001</v>
       </c>
       <c r="B579" t="n">
-        <v>3.45274254e-13</v>
+        <v>9.42669666e-13</v>
       </c>
       <c r="C579" t="n">
-        <v>1.093984974e-14</v>
+        <v>1.186394742e-14</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="1" t="n">
-        <v>3.03399</v>
+        <v>3.01047</v>
       </c>
       <c r="B580" t="n">
-        <v>4.29425712e-13</v>
+        <v>1.104172092e-12</v>
       </c>
       <c r="C580" t="n">
-        <v>9.890395560000001e-15</v>
+        <v>1.282245606e-14</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="1" t="n">
-        <v>3.03432</v>
+        <v>3.01128</v>
       </c>
       <c r="B581" t="n">
-        <v>5.80319694e-13</v>
+        <v>1.206873108e-12</v>
       </c>
       <c r="C581" t="n">
-        <v>9.637087319999999e-15</v>
+        <v>1.82189052e-14</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="1" t="n">
-        <v>3.03452</v>
+        <v>3.01174</v>
       </c>
       <c r="B582" t="n">
-        <v>8.13602934e-13</v>
+        <v>1.286756838e-12</v>
       </c>
       <c r="C582" t="n">
-        <v>1.48140945e-14</v>
+        <v>1.85649372e-14</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="1" t="n">
-        <v>3.03483</v>
+        <v>3.01205</v>
       </c>
       <c r="B583" t="n">
-        <v>1.44107109e-12</v>
+        <v>1.361951514e-12</v>
       </c>
       <c r="C583" t="n">
-        <v>2.15486622e-14</v>
+        <v>1.9413837e-14</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="1" t="n">
-        <v>3.03505</v>
+        <v>3.01229</v>
       </c>
       <c r="B584" t="n">
-        <v>1.99583568e-12</v>
+        <v>1.475235342e-12</v>
       </c>
       <c r="C584" t="n">
-        <v>2.47505796e-14</v>
+        <v>1.80880218e-14</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="1" t="n">
-        <v>3.03594</v>
+        <v>3.01249</v>
       </c>
       <c r="B585" t="n">
-        <v>8.68902372e-13</v>
+        <v>1.532490822e-12</v>
       </c>
       <c r="C585" t="n">
-        <v>1.64123298e-14</v>
+        <v>2.06935146e-14</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="1" t="n">
-        <v>3.03698</v>
+        <v>3.01268</v>
       </c>
       <c r="B586" t="n">
-        <v>4.38645222e-13</v>
+        <v>1.538716194e-12</v>
       </c>
       <c r="C586" t="n">
-        <v>1.198126188e-14</v>
+        <v>1.80925074e-14</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="1" t="n">
-        <v>3.03799</v>
+        <v>3.01299</v>
       </c>
       <c r="B587" t="n">
-        <v>4.15704582e-13</v>
+        <v>1.60981776e-12</v>
       </c>
       <c r="C587" t="n">
-        <v>1.330387308e-14</v>
+        <v>2.05386012e-14</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="1" t="n">
-        <v>3.03898</v>
+        <v>3.01352</v>
       </c>
       <c r="B588" t="n">
-        <v>4.12838604e-13</v>
+        <v>1.60845606e-12</v>
       </c>
       <c r="C588" t="n">
-        <v>1.250309736e-14</v>
+        <v>1.96823322e-14</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="1" t="n">
-        <v>3.04002</v>
+        <v>3.01388</v>
       </c>
       <c r="B589" t="n">
-        <v>3.971277900000001e-13</v>
+        <v>1.566645462e-12</v>
       </c>
       <c r="C589" t="n">
-        <v>1.001046546e-14</v>
+        <v>1.93387032e-14</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="1" t="n">
-        <v>3.04202</v>
+        <v>3.01436</v>
       </c>
       <c r="B590" t="n">
-        <v>4.07662542e-13</v>
+        <v>1.454654448e-12</v>
       </c>
       <c r="C590" t="n">
-        <v>1.150070994e-14</v>
+        <v>1.76441076e-14</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="1" t="n">
-        <v>3.04591</v>
+        <v>3.01441</v>
       </c>
       <c r="B591" t="n">
-        <v>3.60116784e-13</v>
+        <v>1.107747756e-12</v>
       </c>
       <c r="C591" t="n">
-        <v>1.131867468e-14</v>
+        <v>1.80702396e-14</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="1" t="n">
-        <v>3.05</v>
+        <v>3.01501</v>
       </c>
       <c r="B592" t="n">
-        <v>2.89575918e-13</v>
+        <v>1.240265196e-12</v>
       </c>
       <c r="C592" t="n">
-        <v>1.007291142e-14</v>
+        <v>1.92124656e-14</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="1" t="n">
-        <v>3.05401</v>
+        <v>3.01551</v>
       </c>
       <c r="B593" t="n">
-        <v>2.13407226e-13</v>
+        <v>1.04315031e-12</v>
       </c>
       <c r="C593" t="n">
-        <v>1.01101419e-14</v>
+        <v>1.451405592e-14</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="1" t="n">
-        <v>3.05801</v>
+        <v>3.01607</v>
       </c>
       <c r="B594" t="n">
-        <v>2.43361422e-13</v>
+        <v>9.08404488e-13</v>
       </c>
       <c r="C594" t="n">
-        <v>9.89568216e-15</v>
+        <v>1.312257474e-14</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="1" t="n">
-        <v>3.05997</v>
+        <v>3.0165</v>
       </c>
       <c r="B595" t="n">
-        <v>2.50450272e-13</v>
+        <v>7.898564880000001e-13</v>
       </c>
       <c r="C595" t="n">
-        <v>9.605752199999999e-15</v>
+        <v>1.381838742e-14</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="1" t="n">
-        <v>3.06048</v>
+        <v>3.01703</v>
       </c>
       <c r="B596" t="n">
-        <v>2.72505006e-13</v>
+        <v>7.071420239999999e-13</v>
       </c>
       <c r="C596" t="n">
-        <v>1.060557642e-14</v>
+        <v>1.111808826e-14</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="1" t="n">
-        <v>3.06096</v>
+        <v>3.01753</v>
       </c>
       <c r="B597" t="n">
-        <v>2.62314684e-13</v>
+        <v>6.33989898e-13</v>
       </c>
       <c r="C597" t="n">
-        <v>1.122095268e-14</v>
+        <v>9.21073104e-15</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="1" t="n">
-        <v>3.0613</v>
+        <v>3.01809</v>
       </c>
       <c r="B598" t="n">
-        <v>2.90247156e-13</v>
+        <v>5.647722839999999e-13</v>
       </c>
       <c r="C598" t="n">
-        <v>1.227458808e-14</v>
+        <v>9.81031158e-15</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="1" t="n">
-        <v>3.06147</v>
+        <v>3.01852</v>
       </c>
       <c r="B599" t="n">
-        <v>2.71878624e-13</v>
+        <v>4.6936197e-13</v>
       </c>
       <c r="C599" t="n">
-        <v>1.17762219e-14</v>
+        <v>1.218843252e-14</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="1" t="n">
-        <v>3.06178</v>
+        <v>3.01857</v>
       </c>
       <c r="B600" t="n">
-        <v>3.07181898e-13</v>
+        <v>5.095209060000001e-13</v>
       </c>
       <c r="C600" t="n">
-        <v>1.208093832e-14</v>
+        <v>1.25379729e-14</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="1" t="n">
-        <v>3.062</v>
+        <v>3.01898</v>
       </c>
       <c r="B601" t="n">
-        <v>3.46684014e-13</v>
+        <v>4.73698584e-13</v>
       </c>
       <c r="C601" t="n">
-        <v>1.30350735e-14</v>
+        <v>1.232599626e-14</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" s="1" t="n">
-        <v>3.06227</v>
+        <v>3.02004</v>
       </c>
       <c r="B602" t="n">
-        <v>3.19395546e-13</v>
+        <v>4.16950938e-13</v>
       </c>
       <c r="C602" t="n">
-        <v>1.198065312e-14</v>
+        <v>1.230388866e-14</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="1" t="n">
-        <v>3.06258</v>
+        <v>3.02218</v>
       </c>
       <c r="B603" t="n">
-        <v>3.18064284e-13</v>
+        <v>3.25763496e-13</v>
       </c>
       <c r="C603" t="n">
-        <v>1.116015678e-14</v>
+        <v>1.085294124e-14</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="1" t="n">
-        <v>3.0628</v>
+        <v>3.02247</v>
       </c>
       <c r="B604" t="n">
-        <v>3.36907008e-13</v>
+        <v>3.39929982e-13</v>
       </c>
       <c r="C604" t="n">
-        <v>1.251399096e-14</v>
+        <v>7.9246134e-15</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="1" t="n">
-        <v>3.06312</v>
+        <v>3.02586</v>
       </c>
       <c r="B605" t="n">
-        <v>3.04362378e-13</v>
+        <v>2.739323880000001e-13</v>
       </c>
       <c r="C605" t="n">
-        <v>1.442951838e-14</v>
+        <v>1.06516179e-14</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" s="1" t="n">
-        <v>3.06324</v>
+        <v>3.02634</v>
       </c>
       <c r="B606" t="n">
-        <v>3.31170246e-13</v>
+        <v>2.82123414e-13</v>
       </c>
       <c r="C606" t="n">
-        <v>1.293027066e-14</v>
+        <v>9.30790836e-15</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="1" t="n">
-        <v>3.06353</v>
+        <v>3.02991</v>
       </c>
       <c r="B607" t="n">
-        <v>3.37623102e-13</v>
+        <v>2.57362902e-13</v>
       </c>
       <c r="C607" t="n">
-        <v>7.45561188e-15</v>
+        <v>9.25300782e-15</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="1" t="n">
-        <v>3.06375</v>
+        <v>3.03034</v>
       </c>
       <c r="B608" t="n">
-        <v>3.40636464e-13</v>
+        <v>2.86929414e-13</v>
       </c>
       <c r="C608" t="n">
-        <v>7.3064016e-15</v>
+        <v>8.31596598e-15</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" s="1" t="n">
-        <v>3.06404</v>
+        <v>3.03203</v>
       </c>
       <c r="B609" t="n">
-        <v>3.4720146e-13</v>
+        <v>2.91519144e-13</v>
       </c>
       <c r="C609" t="n">
-        <v>7.44748974e-15</v>
+        <v>7.526676600000001e-15</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" s="1" t="n">
-        <v>3.06418</v>
+        <v>3.03244</v>
       </c>
       <c r="B610" t="n">
-        <v>3.39638418e-13</v>
+        <v>3.28176108e-13</v>
       </c>
       <c r="C610" t="n">
-        <v>7.70587632e-15</v>
+        <v>9.037106280000001e-15</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" s="1" t="n">
-        <v>3.06445</v>
+        <v>3.033</v>
       </c>
       <c r="B611" t="n">
-        <v>3.22654014e-13</v>
+        <v>3.17449116e-13</v>
       </c>
       <c r="C611" t="n">
-        <v>8.73577008e-15</v>
+        <v>1.09978101e-14</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" s="1" t="n">
-        <v>3.06481</v>
+        <v>3.0335</v>
       </c>
       <c r="B612" t="n">
-        <v>3.2070438e-13</v>
+        <v>5.05073754e-13</v>
       </c>
       <c r="C612" t="n">
-        <v>7.185018060000001e-15</v>
+        <v>1.024413318e-14</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="1" t="n">
-        <v>3.06498</v>
+        <v>3.0336</v>
       </c>
       <c r="B613" t="n">
-        <v>3.15863136e-13</v>
+        <v>3.45274254e-13</v>
       </c>
       <c r="C613" t="n">
-        <v>7.489846619999999e-15</v>
+        <v>1.093984974e-14</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" s="1" t="n">
-        <v>3.06532</v>
+        <v>3.03367</v>
       </c>
       <c r="B614" t="n">
-        <v>3.04455294e-13</v>
+        <v>7.21974942e-13</v>
       </c>
       <c r="C614" t="n">
-        <v>7.50958326e-15</v>
+        <v>1.23428493e-14</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" s="1" t="n">
-        <v>3.06547</v>
+        <v>3.03399</v>
       </c>
       <c r="B615" t="n">
-        <v>2.9694672e-13</v>
+        <v>4.29425712e-13</v>
       </c>
       <c r="C615" t="n">
-        <v>8.01251514e-15</v>
+        <v>9.890395560000001e-15</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" s="1" t="n">
-        <v>3.06583</v>
+        <v>3.03401</v>
       </c>
       <c r="B616" t="n">
-        <v>2.7717003e-13</v>
+        <v>1.89792144e-12</v>
       </c>
       <c r="C616" t="n">
-        <v>7.26777738e-15</v>
+        <v>2.01051e-14</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" s="1" t="n">
-        <v>3.06603</v>
+        <v>3.03423</v>
       </c>
       <c r="B617" t="n">
-        <v>2.60860068e-13</v>
+        <v>1.04109975e-12</v>
       </c>
       <c r="C617" t="n">
-        <v>7.07645052e-15</v>
+        <v>1.193134356e-14</v>
       </c>
     </row>
     <row r="618">
       <c r="A618" s="1" t="n">
-        <v>3.0662</v>
+        <v>3.03432</v>
       </c>
       <c r="B618" t="n">
-        <v>2.54235798e-13</v>
+        <v>5.80319694e-13</v>
       </c>
       <c r="C618" t="n">
-        <v>7.905998160000001e-15</v>
+        <v>9.637087319999999e-15</v>
       </c>
     </row>
     <row r="619">
       <c r="A619" s="1" t="n">
-        <v>3.06658</v>
+        <v>3.03444</v>
       </c>
       <c r="B619" t="n">
-        <v>2.50139484e-13</v>
+        <v>1.56168567e-12</v>
       </c>
       <c r="C619" t="n">
-        <v>6.7590783e-15</v>
+        <v>1.223716536e-14</v>
       </c>
     </row>
     <row r="620">
       <c r="A620" s="1" t="n">
-        <v>3.06707</v>
+        <v>3.03452</v>
       </c>
       <c r="B620" t="n">
-        <v>2.41174692e-13</v>
+        <v>8.13602934e-13</v>
       </c>
       <c r="C620" t="n">
-        <v>7.213421519999999e-15</v>
+        <v>1.48140945e-14</v>
       </c>
     </row>
     <row r="621">
       <c r="A621" s="1" t="n">
-        <v>3.06758</v>
+        <v>3.03483</v>
       </c>
       <c r="B621" t="n">
-        <v>2.49386544e-13</v>
+        <v>1.44107109e-12</v>
       </c>
       <c r="C621" t="n">
-        <v>7.27434558e-15</v>
+        <v>2.15486622e-14</v>
       </c>
     </row>
     <row r="622">
       <c r="A622" s="1" t="n">
-        <v>3.06787</v>
+        <v>3.03488</v>
       </c>
       <c r="B622" t="n">
-        <v>2.323909259999999e-13</v>
+        <v>1.036607742e-12</v>
       </c>
       <c r="C622" t="n">
-        <v>7.83382806e-15</v>
+        <v>1.289384118e-14</v>
       </c>
     </row>
     <row r="623">
       <c r="A623" s="1" t="n">
-        <v>3.06913</v>
+        <v>3.03505</v>
       </c>
       <c r="B623" t="n">
-        <v>2.482491240000001e-13</v>
+        <v>1.99583568e-12</v>
       </c>
       <c r="C623" t="n">
-        <v>7.9829262e-15</v>
+        <v>2.47505796e-14</v>
       </c>
     </row>
     <row r="624">
       <c r="A624" s="1" t="n">
-        <v>3.06998</v>
+        <v>3.03594</v>
       </c>
       <c r="B624" t="n">
-        <v>2.63436084e-13</v>
+        <v>8.68902372e-13</v>
       </c>
       <c r="C624" t="n">
-        <v>7.331681160000002e-15</v>
+        <v>1.64123298e-14</v>
       </c>
     </row>
     <row r="625">
       <c r="A625" s="1" t="n">
-        <v>3.07095</v>
+        <v>3.03698</v>
       </c>
       <c r="B625" t="n">
-        <v>3.34749114e-13</v>
+        <v>4.38645222e-13</v>
       </c>
       <c r="C625" t="n">
-        <v>7.26941142e-15</v>
+        <v>1.198126188e-14</v>
       </c>
     </row>
     <row r="626">
       <c r="A626" s="1" t="n">
-        <v>3.07209</v>
+        <v>3.03799</v>
       </c>
       <c r="B626" t="n">
-        <v>6.614225460000001e-13</v>
+        <v>4.15704582e-13</v>
       </c>
       <c r="C626" t="n">
-        <v>1.084211172e-14</v>
+        <v>1.330387308e-14</v>
       </c>
     </row>
     <row r="627">
       <c r="A627" s="1" t="n">
-        <v>3.07245</v>
+        <v>3.03879</v>
       </c>
       <c r="B627" t="n">
-        <v>8.8687521e-13</v>
+        <v>4.02148458e-13</v>
       </c>
       <c r="C627" t="n">
-        <v>1.11183606e-14</v>
+        <v>8.559069480000001e-15</v>
       </c>
     </row>
     <row r="628">
       <c r="A628" s="1" t="n">
-        <v>3.07279</v>
+        <v>3.03898</v>
       </c>
       <c r="B628" t="n">
-        <v>1.532429946e-12</v>
+        <v>4.12838604e-13</v>
       </c>
       <c r="C628" t="n">
-        <v>1.534534974e-14</v>
+        <v>1.250309736e-14</v>
       </c>
     </row>
     <row r="629">
       <c r="A629" s="1" t="n">
-        <v>3.07309</v>
+        <v>3.04002</v>
       </c>
       <c r="B629" t="n">
-        <v>2.51848818e-12</v>
+        <v>3.971277900000001e-13</v>
       </c>
       <c r="C629" t="n">
-        <v>2.0749104e-14</v>
+        <v>1.001046546e-14</v>
       </c>
     </row>
     <row r="630">
       <c r="A630" s="1" t="n">
-        <v>3.07328</v>
+        <v>3.04202</v>
       </c>
       <c r="B630" t="n">
-        <v>3.49061382e-12</v>
+        <v>4.07662542e-13</v>
       </c>
       <c r="C630" t="n">
-        <v>2.09224404e-14</v>
+        <v>1.150070994e-14</v>
       </c>
     </row>
     <row r="631">
       <c r="A631" s="1" t="n">
-        <v>3.07362</v>
+        <v>3.04296</v>
       </c>
       <c r="B631" t="n">
-        <v>3.62609496e-12</v>
+        <v>3.92667822e-13</v>
       </c>
       <c r="C631" t="n">
-        <v>2.23168212e-14</v>
+        <v>8.39101968e-15</v>
       </c>
     </row>
     <row r="632">
       <c r="A632" s="1" t="n">
-        <v>3.07384</v>
+        <v>3.04591</v>
       </c>
       <c r="B632" t="n">
-        <v>2.92182372e-12</v>
+        <v>3.60116784e-13</v>
       </c>
       <c r="C632" t="n">
-        <v>2.24755794e-14</v>
+        <v>1.131867468e-14</v>
       </c>
     </row>
     <row r="633">
       <c r="A633" s="1" t="n">
-        <v>3.07401</v>
+        <v>3.04695</v>
       </c>
       <c r="B633" t="n">
-        <v>2.28927402e-12</v>
+        <v>3.08820744e-13</v>
       </c>
       <c r="C633" t="n">
-        <v>1.83899988e-14</v>
+        <v>8.75440134e-15</v>
       </c>
     </row>
     <row r="634">
       <c r="A634" s="1" t="n">
-        <v>3.0743</v>
+        <v>3.04891</v>
       </c>
       <c r="B634" t="n">
-        <v>1.54180485e-12</v>
+        <v>2.85322608e-13</v>
       </c>
       <c r="C634" t="n">
-        <v>1.75776246e-14</v>
+        <v>8.728256700000001e-15</v>
       </c>
     </row>
     <row r="635">
       <c r="A635" s="1" t="n">
-        <v>3.07452</v>
+        <v>3.05</v>
       </c>
       <c r="B635" t="n">
-        <v>1.18525572e-12</v>
+        <v>2.89575918e-13</v>
       </c>
       <c r="C635" t="n">
-        <v>1.500692724e-14</v>
+        <v>1.007291142e-14</v>
       </c>
     </row>
     <row r="636">
       <c r="A636" s="1" t="n">
-        <v>3.07505</v>
+        <v>3.0529</v>
       </c>
       <c r="B636" t="n">
-        <v>7.3488546e-13</v>
+        <v>2.22504984e-13</v>
       </c>
       <c r="C636" t="n">
-        <v>1.19225646e-14</v>
+        <v>7.606904760000002e-15</v>
       </c>
     </row>
     <row r="637">
       <c r="A637" s="1" t="n">
-        <v>3.07537</v>
+        <v>3.05401</v>
       </c>
       <c r="B637" t="n">
-        <v>5.9071347e-13</v>
+        <v>2.13407226e-13</v>
       </c>
       <c r="C637" t="n">
-        <v>1.192605696e-14</v>
+        <v>1.01101419e-14</v>
       </c>
     </row>
     <row r="638">
       <c r="A638" s="1" t="n">
-        <v>3.07593</v>
+        <v>3.05694</v>
       </c>
       <c r="B638" t="n">
-        <v>4.9162176e-13</v>
+        <v>2.35567692e-13</v>
       </c>
       <c r="C638" t="n">
-        <v>1.079605422e-14</v>
+        <v>8.8073955e-15</v>
       </c>
     </row>
     <row r="639">
       <c r="A639" s="1" t="n">
-        <v>3.07644</v>
+        <v>3.05801</v>
       </c>
       <c r="B639" t="n">
-        <v>4.25793978e-13</v>
+        <v>2.43361422e-13</v>
       </c>
       <c r="C639" t="n">
-        <v>1.047610278e-14</v>
+        <v>9.89568216e-15</v>
       </c>
     </row>
     <row r="640">
       <c r="A640" s="1" t="n">
-        <v>3.07697</v>
+        <v>3.05997</v>
       </c>
       <c r="B640" t="n">
-        <v>3.96136152e-13</v>
+        <v>2.50450272e-13</v>
       </c>
       <c r="C640" t="n">
-        <v>9.81720018e-15</v>
+        <v>9.605752199999999e-15</v>
       </c>
     </row>
     <row r="641">
       <c r="A641" s="1" t="n">
-        <v>3.07801</v>
+        <v>3.06048</v>
       </c>
       <c r="B641" t="n">
-        <v>3.4279596e-13</v>
+        <v>2.72505006e-13</v>
       </c>
       <c r="C641" t="n">
-        <v>7.82051544e-15</v>
+        <v>1.060557642e-14</v>
       </c>
     </row>
     <row r="642">
       <c r="A642" s="1" t="n">
-        <v>3.08001</v>
+        <v>3.06094</v>
       </c>
       <c r="B642" t="n">
-        <v>2.91482298e-13</v>
+        <v>3.09208428e-13</v>
       </c>
       <c r="C642" t="n">
-        <v>1.15860645e-14</v>
+        <v>7.56019044e-15</v>
       </c>
     </row>
     <row r="643">
       <c r="A643" s="1" t="n">
-        <v>3.08205</v>
+        <v>3.06096</v>
       </c>
       <c r="B643" t="n">
-        <v>3.03324282e-13</v>
+        <v>2.62314684e-13</v>
       </c>
       <c r="C643" t="n">
-        <v>8.85306852e-15</v>
+        <v>1.122095268e-14</v>
       </c>
     </row>
     <row r="644">
       <c r="A644" s="1" t="n">
-        <v>3.0829</v>
+        <v>3.0613</v>
       </c>
       <c r="B644" t="n">
-        <v>2.94859314e-13</v>
+        <v>2.90247156e-13</v>
       </c>
       <c r="C644" t="n">
-        <v>8.747448660000001e-15</v>
+        <v>1.227458808e-14</v>
       </c>
     </row>
     <row r="645">
       <c r="A645" s="1" t="n">
-        <v>3.08356</v>
+        <v>3.06147</v>
       </c>
       <c r="B645" t="n">
-        <v>2.98954026e-13</v>
+        <v>2.71878624e-13</v>
       </c>
       <c r="C645" t="n">
-        <v>8.55053082e-15</v>
+        <v>1.17762219e-14</v>
       </c>
     </row>
     <row r="646">
       <c r="A646" s="1" t="n">
-        <v>3.08506</v>
+        <v>3.06178</v>
       </c>
       <c r="B646" t="n">
-        <v>3.0569364e-13</v>
+        <v>3.07181898e-13</v>
       </c>
       <c r="C646" t="n">
-        <v>9.026965620000001e-15</v>
+        <v>1.208093832e-14</v>
       </c>
     </row>
     <row r="647">
       <c r="A647" s="1" t="n">
-        <v>3.08604</v>
+        <v>3.062</v>
       </c>
       <c r="B647" t="n">
-        <v>2.9511243e-13</v>
+        <v>3.46684014e-13</v>
       </c>
       <c r="C647" t="n">
-        <v>9.79826454e-15</v>
+        <v>1.30350735e-14</v>
       </c>
     </row>
     <row r="648">
       <c r="A648" s="1" t="n">
-        <v>3.08798</v>
+        <v>3.06227</v>
       </c>
       <c r="B648" t="n">
-        <v>3.10518864e-13</v>
+        <v>3.19395546e-13</v>
       </c>
       <c r="C648" t="n">
-        <v>8.7507648e-15</v>
+        <v>1.198065312e-14</v>
       </c>
     </row>
     <row r="649">
       <c r="A649" s="1" t="n">
-        <v>3.08898</v>
+        <v>3.06258</v>
       </c>
       <c r="B649" t="n">
-        <v>2.97078084e-13</v>
+        <v>3.18064284e-13</v>
       </c>
       <c r="C649" t="n">
-        <v>8.04232836e-15</v>
+        <v>1.116015678e-14</v>
       </c>
     </row>
     <row r="650">
       <c r="A650" s="1" t="n">
-        <v>3.08998</v>
+        <v>3.0628</v>
       </c>
       <c r="B650" t="n">
-        <v>3.03101604e-13</v>
+        <v>3.36907008e-13</v>
       </c>
       <c r="C650" t="n">
-        <v>8.445567780000001e-15</v>
+        <v>1.251399096e-14</v>
       </c>
     </row>
     <row r="651">
       <c r="A651" s="1" t="n">
-        <v>3.09102</v>
+        <v>3.06292</v>
       </c>
       <c r="B651" t="n">
-        <v>3.1427235e-13</v>
+        <v>3.36277422e-13</v>
       </c>
       <c r="C651" t="n">
-        <v>7.850360700000001e-15</v>
+        <v>7.7541606e-15</v>
       </c>
     </row>
     <row r="652">
       <c r="A652" s="1" t="n">
-        <v>3.09197</v>
+        <v>3.06312</v>
       </c>
       <c r="B652" t="n">
-        <v>3.1208562e-13</v>
+        <v>3.04362378e-13</v>
       </c>
       <c r="C652" t="n">
-        <v>9.25433748e-15</v>
+        <v>1.442951838e-14</v>
       </c>
     </row>
     <row r="653">
       <c r="A653" s="1" t="n">
-        <v>3.09305</v>
+        <v>3.06324</v>
       </c>
       <c r="B653" t="n">
-        <v>3.17506788e-13</v>
+        <v>3.31170246e-13</v>
       </c>
       <c r="C653" t="n">
-        <v>8.55802818e-15</v>
+        <v>1.293027066e-14</v>
       </c>
     </row>
     <row r="654">
       <c r="A654" s="1" t="n">
-        <v>3.09412</v>
+        <v>3.06353</v>
       </c>
       <c r="B654" t="n">
-        <v>3.18182832e-13</v>
+        <v>3.37623102e-13</v>
       </c>
       <c r="C654" t="n">
-        <v>9.005947380000002e-15</v>
+        <v>7.45561188e-15</v>
       </c>
     </row>
     <row r="655">
       <c r="A655" s="1" t="n">
-        <v>3.09509</v>
+        <v>3.06375</v>
       </c>
       <c r="B655" t="n">
-        <v>3.49042158e-13</v>
+        <v>3.40636464e-13</v>
       </c>
       <c r="C655" t="n">
-        <v>9.390795839999999e-15</v>
+        <v>7.3064016e-15</v>
       </c>
     </row>
     <row r="656">
       <c r="A656" s="1" t="n">
-        <v>3.09597</v>
+        <v>3.06389</v>
       </c>
       <c r="B656" t="n">
-        <v>3.29941512e-13</v>
+        <v>3.31155828e-13</v>
       </c>
       <c r="C656" t="n">
-        <v>1.142110656e-14</v>
+        <v>9.102932460000001e-15</v>
       </c>
     </row>
     <row r="657">
       <c r="A657" s="1" t="n">
-        <v>3.09799</v>
+        <v>3.06404</v>
       </c>
       <c r="B657" t="n">
-        <v>3.47324814e-13</v>
+        <v>3.4720146e-13</v>
       </c>
       <c r="C657" t="n">
-        <v>9.161053019999999e-15</v>
+        <v>7.44748974e-15</v>
       </c>
     </row>
     <row r="658">
       <c r="A658" s="1" t="n">
-        <v>3.0996</v>
+        <v>3.06418</v>
       </c>
       <c r="B658" t="n">
-        <v>4.00881276e-13</v>
+        <v>3.39638418e-13</v>
       </c>
       <c r="C658" t="n">
-        <v>1.164895902e-14</v>
+        <v>7.70587632e-15</v>
       </c>
     </row>
     <row r="659">
       <c r="A659" s="1" t="n">
-        <v>3.09994</v>
+        <v>3.06445</v>
       </c>
       <c r="B659" t="n">
-        <v>4.071787380000001e-13</v>
+        <v>3.22654014e-13</v>
       </c>
       <c r="C659" t="n">
-        <v>9.088578539999999e-15</v>
+        <v>8.73577008e-15</v>
       </c>
     </row>
     <row r="660">
       <c r="A660" s="1" t="n">
-        <v>3.10065</v>
+        <v>3.06455</v>
       </c>
       <c r="B660" t="n">
-        <v>4.9388058e-13</v>
+        <v>3.13141338e-13</v>
       </c>
       <c r="C660" t="n">
-        <v>1.109229606e-14</v>
+        <v>1.02610503e-14</v>
       </c>
     </row>
     <row r="661">
       <c r="A661" s="1" t="n">
-        <v>3.10126</v>
+        <v>3.06481</v>
       </c>
       <c r="B661" t="n">
-        <v>6.65051076e-13</v>
+        <v>3.2070438e-13</v>
       </c>
       <c r="C661" t="n">
-        <v>1.179690372e-14</v>
+        <v>7.185018060000001e-15</v>
       </c>
     </row>
     <row r="662">
       <c r="A662" s="1" t="n">
-        <v>3.10145</v>
+        <v>3.06486</v>
       </c>
       <c r="B662" t="n">
-        <v>7.16818104e-13</v>
+        <v>2.63503368e-13</v>
       </c>
       <c r="C662" t="n">
-        <v>1.41647238e-14</v>
+        <v>8.651072339999999e-15</v>
       </c>
     </row>
     <row r="663">
       <c r="A663" s="1" t="n">
-        <v>3.10175</v>
+        <v>3.06498</v>
       </c>
       <c r="B663" t="n">
-        <v>9.443037060000001e-13</v>
+        <v>3.15863136e-13</v>
       </c>
       <c r="C663" t="n">
-        <v>1.365091434e-14</v>
+        <v>7.489846619999999e-15</v>
       </c>
     </row>
     <row r="664">
       <c r="A664" s="1" t="n">
-        <v>3.10211</v>
+        <v>3.06532</v>
       </c>
       <c r="B664" t="n">
-        <v>1.373272848e-12</v>
+        <v>3.04455294e-13</v>
       </c>
       <c r="C664" t="n">
-        <v>1.78605378e-14</v>
+        <v>7.50958326e-15</v>
       </c>
     </row>
     <row r="665">
       <c r="A665" s="1" t="n">
-        <v>3.10231</v>
+        <v>3.06547</v>
       </c>
       <c r="B665" t="n">
-        <v>1.6355619e-12</v>
+        <v>2.9694672e-13</v>
       </c>
       <c r="C665" t="n">
-        <v>1.86778782e-14</v>
+        <v>8.01251514e-15</v>
       </c>
     </row>
     <row r="666">
       <c r="A666" s="1" t="n">
-        <v>3.10248</v>
+        <v>3.06583</v>
       </c>
       <c r="B666" t="n">
-        <v>1.72104462e-12</v>
+        <v>2.7717003e-13</v>
       </c>
       <c r="C666" t="n">
-        <v>1.91208312e-14</v>
+        <v>7.26777738e-15</v>
       </c>
     </row>
     <row r="667">
       <c r="A667" s="1" t="n">
-        <v>3.10267</v>
+        <v>3.06603</v>
       </c>
       <c r="B667" t="n">
-        <v>1.63705176e-12</v>
+        <v>2.60860068e-13</v>
       </c>
       <c r="C667" t="n">
-        <v>2.07742554e-14</v>
+        <v>7.07645052e-15</v>
       </c>
     </row>
     <row r="668">
       <c r="A668" s="1" t="n">
-        <v>3.10301</v>
+        <v>3.0662</v>
       </c>
       <c r="B668" t="n">
-        <v>1.39378806e-12</v>
+        <v>2.54235798e-13</v>
       </c>
       <c r="C668" t="n">
-        <v>1.97331156e-14</v>
+        <v>7.905998160000001e-15</v>
       </c>
     </row>
     <row r="669">
       <c r="A669" s="1" t="n">
-        <v>3.10353</v>
+        <v>3.06658</v>
       </c>
       <c r="B669" t="n">
-        <v>9.1496628e-13</v>
+        <v>2.50139484e-13</v>
       </c>
       <c r="C669" t="n">
-        <v>1.407475548e-14</v>
+        <v>6.7590783e-15</v>
       </c>
     </row>
     <row r="670">
       <c r="A670" s="1" t="n">
-        <v>3.10401</v>
+        <v>3.06707</v>
       </c>
       <c r="B670" t="n">
-        <v>6.51249846e-13</v>
+        <v>2.41174692e-13</v>
       </c>
       <c r="C670" t="n">
-        <v>1.246504986e-14</v>
+        <v>7.213421519999999e-15</v>
       </c>
     </row>
     <row r="671">
       <c r="A671" s="1" t="n">
-        <v>3.10453</v>
+        <v>3.06758</v>
       </c>
       <c r="B671" t="n">
-        <v>5.642724600000001e-13</v>
+        <v>2.49386544e-13</v>
       </c>
       <c r="C671" t="n">
-        <v>1.167327738e-14</v>
+        <v>7.27434558e-15</v>
       </c>
     </row>
     <row r="672">
       <c r="A672" s="1" t="n">
-        <v>3.10506</v>
+        <v>3.06787</v>
       </c>
       <c r="B672" t="n">
-        <v>4.7662704e-13</v>
+        <v>2.323909259999999e-13</v>
       </c>
       <c r="C672" t="n">
-        <v>9.09019656e-15</v>
+        <v>7.83382806e-15</v>
       </c>
     </row>
     <row r="673">
       <c r="A673" s="1" t="n">
-        <v>3.10538</v>
+        <v>3.06913</v>
       </c>
       <c r="B673" t="n">
-        <v>4.36586652e-13</v>
+        <v>2.482491240000001e-13</v>
       </c>
       <c r="C673" t="n">
-        <v>9.5358249e-15</v>
+        <v>7.9829262e-15</v>
       </c>
     </row>
     <row r="674">
       <c r="A674" s="1" t="n">
-        <v>3.10592</v>
+        <v>3.06998</v>
       </c>
       <c r="B674" t="n">
-        <v>4.13021232e-13</v>
+        <v>2.63436084e-13</v>
       </c>
       <c r="C674" t="n">
-        <v>9.77280876e-15</v>
+        <v>7.331681160000002e-15</v>
       </c>
     </row>
     <row r="675">
       <c r="A675" s="1" t="n">
-        <v>3.10658</v>
+        <v>3.07042</v>
       </c>
       <c r="B675" t="n">
-        <v>4.07870802e-13</v>
+        <v>3.99902454e-13</v>
       </c>
       <c r="C675" t="n">
-        <v>1.040652792e-14</v>
+        <v>9.79267356e-15</v>
       </c>
     </row>
     <row r="676">
       <c r="A676" s="1" t="n">
-        <v>3.10709</v>
+        <v>3.07095</v>
       </c>
       <c r="B676" t="n">
-        <v>4.1160987e-13</v>
+        <v>3.34749114e-13</v>
       </c>
       <c r="C676" t="n">
-        <v>1.081593504e-14</v>
+        <v>7.26941142e-15</v>
       </c>
     </row>
     <row r="677">
       <c r="A677" s="1" t="n">
-        <v>3.10745</v>
+        <v>3.07097</v>
       </c>
       <c r="B677" t="n">
-        <v>3.87650358e-13</v>
+        <v>5.0720922e-13</v>
       </c>
       <c r="C677" t="n">
-        <v>1.06165341e-14</v>
+        <v>1.097531802e-14</v>
       </c>
     </row>
     <row r="678">
       <c r="A678" s="1" t="n">
-        <v>3.10784</v>
+        <v>3.07192</v>
       </c>
       <c r="B678" t="n">
-        <v>3.73831506e-13</v>
+        <v>1.425991464e-12</v>
       </c>
       <c r="C678" t="n">
-        <v>1.07973198e-14</v>
+        <v>2.91060972e-14</v>
       </c>
     </row>
     <row r="679">
       <c r="A679" s="1" t="n">
-        <v>3.112</v>
+        <v>3.07204</v>
       </c>
       <c r="B679" t="n">
-        <v>3.83408262e-13</v>
+        <v>1.99535508e-12</v>
       </c>
       <c r="C679" t="n">
-        <v>1.214714898e-14</v>
+        <v>2.73366882e-14</v>
       </c>
     </row>
     <row r="680">
       <c r="A680" s="1" t="n">
-        <v>3.11559</v>
+        <v>3.07209</v>
       </c>
       <c r="B680" t="n">
-        <v>4.50344628e-13</v>
+        <v>6.614225460000001e-13</v>
       </c>
       <c r="C680" t="n">
-        <v>1.136993868e-14</v>
+        <v>1.084211172e-14</v>
       </c>
     </row>
     <row r="681">
       <c r="A681" s="1" t="n">
-        <v>3.12001</v>
+        <v>3.07241</v>
       </c>
       <c r="B681" t="n">
-        <v>5.182469999999999e-13</v>
+        <v>3.41423046e-12</v>
       </c>
       <c r="C681" t="n">
-        <v>1.259441136e-14</v>
+        <v>4.88398536e-14</v>
       </c>
     </row>
     <row r="682">
       <c r="A682" s="1" t="n">
-        <v>3.124</v>
+        <v>3.07245</v>
       </c>
       <c r="B682" t="n">
-        <v>5.21071326e-13</v>
+        <v>8.8687521e-13</v>
       </c>
       <c r="C682" t="n">
-        <v>1.222119342e-14</v>
+        <v>1.11183606e-14</v>
       </c>
     </row>
     <row r="683">
       <c r="A683" s="1" t="n">
-        <v>3.1349</v>
+        <v>3.0726</v>
       </c>
       <c r="B683" t="n">
-        <v>4.03412436e-13</v>
+        <v>3.6770706e-12</v>
       </c>
       <c r="C683" t="n">
-        <v>8.70183972e-15</v>
+        <v>3.0700728e-14</v>
       </c>
     </row>
     <row r="684">
       <c r="A684" s="1" t="n">
-        <v>3.13895</v>
+        <v>3.07279</v>
       </c>
       <c r="B684" t="n">
-        <v>3.870319860000001e-13</v>
+        <v>1.532429946e-12</v>
       </c>
       <c r="C684" t="n">
-        <v>8.582955299999999e-15</v>
+        <v>1.534534974e-14</v>
       </c>
     </row>
     <row r="685">
       <c r="A685" s="1" t="n">
-        <v>3.14273</v>
+        <v>3.07292</v>
       </c>
       <c r="B685" t="n">
-        <v>3.29473728e-13</v>
+        <v>3.14860284e-12</v>
       </c>
       <c r="C685" t="n">
-        <v>8.089571339999998e-15</v>
+        <v>2.68121934e-14</v>
       </c>
     </row>
     <row r="686">
       <c r="A686" s="1" t="n">
-        <v>3.14764</v>
+        <v>3.07309</v>
       </c>
       <c r="B686" t="n">
-        <v>2.45190906e-13</v>
+        <v>2.57987682e-12</v>
       </c>
       <c r="C686" t="n">
-        <v>9.33515838e-15</v>
+        <v>2.64583116e-14</v>
       </c>
     </row>
     <row r="687">
       <c r="A687" s="1" t="n">
-        <v>3.15204</v>
+        <v>3.07309</v>
       </c>
       <c r="B687" t="n">
-        <v>2.54082006e-13</v>
+        <v>2.51848818e-12</v>
       </c>
       <c r="C687" t="n">
-        <v>9.38204892e-15</v>
+        <v>2.0749104e-14</v>
       </c>
     </row>
     <row r="688">
       <c r="A688" s="1" t="n">
-        <v>3.157</v>
+        <v>3.07328</v>
       </c>
       <c r="B688" t="n">
-        <v>2.26425078e-13</v>
+        <v>3.49061382e-12</v>
       </c>
       <c r="C688" t="n">
-        <v>7.13966544e-15</v>
+        <v>2.09224404e-14</v>
       </c>
     </row>
     <row r="689">
       <c r="A689" s="1" t="n">
-        <v>3.15782</v>
+        <v>3.0734</v>
       </c>
       <c r="B689" t="n">
-        <v>2.312631180000001e-13</v>
+        <v>2.27663424e-12</v>
       </c>
       <c r="C689" t="n">
-        <v>8.54767926e-15</v>
+        <v>2.67170346e-14</v>
       </c>
     </row>
     <row r="690">
       <c r="A690" s="1" t="n">
-        <v>3.15836</v>
+        <v>3.07362</v>
       </c>
       <c r="B690" t="n">
-        <v>2.16857934e-13</v>
+        <v>3.62609496e-12</v>
       </c>
       <c r="C690" t="n">
-        <v>6.25904604e-15</v>
+        <v>2.23168212e-14</v>
       </c>
     </row>
     <row r="691">
       <c r="A691" s="1" t="n">
-        <v>3.15887</v>
+        <v>3.07374</v>
       </c>
       <c r="B691" t="n">
-        <v>2.39228262e-13</v>
+        <v>1.7240724e-12</v>
       </c>
       <c r="C691" t="n">
-        <v>7.93065294e-15</v>
+        <v>2.27077092e-14</v>
       </c>
     </row>
     <row r="692">
       <c r="A692" s="1" t="n">
-        <v>3.15981</v>
+        <v>3.07384</v>
       </c>
       <c r="B692" t="n">
-        <v>2.96166546e-13</v>
+        <v>2.92182372e-12</v>
       </c>
       <c r="C692" t="n">
-        <v>1.043584452e-14</v>
+        <v>2.24755794e-14</v>
       </c>
     </row>
     <row r="693">
       <c r="A693" s="1" t="n">
-        <v>3.16087</v>
+        <v>3.07398</v>
       </c>
       <c r="B693" t="n">
-        <v>8.05400694e-13</v>
+        <v>1.164689244e-12</v>
       </c>
       <c r="C693" t="n">
-        <v>1.219596192e-14</v>
+        <v>1.375520454e-14</v>
       </c>
     </row>
     <row r="694">
       <c r="A694" s="1" t="n">
-        <v>3.16166</v>
+        <v>3.07401</v>
       </c>
       <c r="B694" t="n">
-        <v>3.23597592e-13</v>
+        <v>2.28927402e-12</v>
       </c>
       <c r="C694" t="n">
-        <v>5.89230018e-15</v>
+        <v>1.83899988e-14</v>
       </c>
     </row>
     <row r="695">
       <c r="A695" s="1" t="n">
-        <v>3.16249</v>
+        <v>3.0743</v>
       </c>
       <c r="B695" t="n">
-        <v>2.89484604e-13</v>
+        <v>1.54180485e-12</v>
       </c>
       <c r="C695" t="n">
-        <v>7.7605686e-15</v>
+        <v>1.75776246e-14</v>
       </c>
     </row>
     <row r="696">
       <c r="A696" s="1" t="n">
-        <v>3.16316</v>
+        <v>3.07452</v>
       </c>
       <c r="B696" t="n">
-        <v>2.65550724e-13</v>
+        <v>1.18525572e-12</v>
       </c>
       <c r="C696" t="n">
-        <v>6.95738988e-15</v>
+        <v>1.500692724e-14</v>
       </c>
     </row>
     <row r="697">
       <c r="A697" s="1" t="n">
-        <v>3.16392</v>
+        <v>3.07452</v>
       </c>
       <c r="B697" t="n">
-        <v>2.448240479999999e-13</v>
+        <v>7.35258726e-13</v>
       </c>
       <c r="C697" t="n">
-        <v>5.77926306e-15</v>
+        <v>1.394923878e-14</v>
       </c>
     </row>
     <row r="698">
       <c r="A698" s="1" t="n">
-        <v>3.16525</v>
+        <v>3.07491</v>
       </c>
       <c r="B698" t="n">
-        <v>2.56917546e-13</v>
+        <v>5.662557360000001e-13</v>
       </c>
       <c r="C698" t="n">
-        <v>5.51925846e-15</v>
+        <v>1.223178264e-14</v>
       </c>
     </row>
     <row r="699">
       <c r="A699" s="1" t="n">
-        <v>3.16661</v>
+        <v>3.07505</v>
       </c>
       <c r="B699" t="n">
-        <v>2.68536852e-13</v>
+        <v>7.3488546e-13</v>
       </c>
       <c r="C699" t="n">
-        <v>8.145417060000002e-15</v>
+        <v>1.19225646e-14</v>
       </c>
     </row>
     <row r="700">
       <c r="A700" s="1" t="n">
-        <v>3.16764</v>
+        <v>3.07537</v>
       </c>
       <c r="B700" t="n">
-        <v>2.77043472e-13</v>
+        <v>5.9071347e-13</v>
       </c>
       <c r="C700" t="n">
-        <v>7.60680864e-15</v>
+        <v>1.192605696e-14</v>
       </c>
     </row>
     <row r="701">
       <c r="A701" s="1" t="n">
-        <v>3.1689</v>
+        <v>3.0759</v>
       </c>
       <c r="B701" t="n">
-        <v>3.13754904e-13</v>
+        <v>4.09211676e-13</v>
       </c>
       <c r="C701" t="n">
-        <v>7.81593372e-15</v>
+        <v>9.870082200000001e-15</v>
       </c>
     </row>
     <row r="702">
       <c r="A702" s="1" t="n">
-        <v>3.17043</v>
+        <v>3.07593</v>
       </c>
       <c r="B702" t="n">
-        <v>3.82531968e-13</v>
+        <v>4.9162176e-13</v>
       </c>
       <c r="C702" t="n">
-        <v>9.1627191e-15</v>
+        <v>1.079605422e-14</v>
       </c>
     </row>
     <row r="703">
       <c r="A703" s="1" t="n">
-        <v>3.17279</v>
+        <v>3.07644</v>
       </c>
       <c r="B703" t="n">
-        <v>5.54482638e-13</v>
+        <v>4.25793978e-13</v>
       </c>
       <c r="C703" t="n">
-        <v>1.193067072e-14</v>
+        <v>1.047610278e-14</v>
       </c>
     </row>
     <row r="704">
       <c r="A704" s="1" t="n">
-        <v>3.17383</v>
+        <v>3.07697</v>
       </c>
       <c r="B704" t="n">
-        <v>6.82248546e-13</v>
+        <v>3.96136152e-13</v>
       </c>
       <c r="C704" t="n">
-        <v>9.80805276e-15</v>
+        <v>9.81720018e-15</v>
       </c>
     </row>
     <row r="705">
       <c r="A705" s="1" t="n">
-        <v>3.17484</v>
+        <v>3.07784</v>
       </c>
       <c r="B705" t="n">
-        <v>8.1988758e-13</v>
+        <v>3.35792016e-13</v>
       </c>
       <c r="C705" t="n">
-        <v>1.383011406e-14</v>
+        <v>9.414777779999999e-15</v>
       </c>
     </row>
     <row r="706">
       <c r="A706" s="1" t="n">
-        <v>3.17728</v>
+        <v>3.07801</v>
       </c>
       <c r="B706" t="n">
-        <v>9.209946059999999e-13</v>
+        <v>3.4279596e-13</v>
       </c>
       <c r="C706" t="n">
-        <v>1.279927512e-14</v>
+        <v>7.82051544e-15</v>
       </c>
     </row>
     <row r="707">
       <c r="A707" s="1" t="n">
-        <v>3.17815</v>
+        <v>3.08001</v>
       </c>
       <c r="B707" t="n">
-        <v>9.452136420000001e-13</v>
+        <v>2.91482298e-13</v>
       </c>
       <c r="C707" t="n">
-        <v>1.69898508e-14</v>
+        <v>1.15860645e-14</v>
       </c>
     </row>
     <row r="708">
       <c r="A708" s="1" t="n">
-        <v>3.18385</v>
+        <v>3.0819</v>
       </c>
       <c r="B708" t="n">
-        <v>4.82711436e-13</v>
+        <v>3.1146084e-13</v>
       </c>
       <c r="C708" t="n">
-        <v>1.121246208e-14</v>
+        <v>1.111829652e-14</v>
       </c>
     </row>
     <row r="709">
       <c r="A709" s="1" t="n">
-        <v>3.18385</v>
+        <v>3.08205</v>
       </c>
       <c r="B709" t="n">
-        <v>3.37600674e-13</v>
+        <v>3.03324282e-13</v>
       </c>
       <c r="C709" t="n">
-        <v>6.580439279999999e-15</v>
+        <v>8.85306852e-15</v>
       </c>
     </row>
     <row r="710">
       <c r="A710" s="1" t="n">
-        <v>3.18983</v>
+        <v>3.0829</v>
       </c>
       <c r="B710" t="n">
-        <v>2.18604114e-13</v>
+        <v>2.94859314e-13</v>
       </c>
       <c r="C710" t="n">
-        <v>3.56835888e-15</v>
+        <v>8.747448660000001e-15</v>
       </c>
     </row>
     <row r="711">
       <c r="A711" s="1" t="n">
-        <v>3.19196</v>
+        <v>3.08356</v>
       </c>
       <c r="B711" t="n">
-        <v>1.8675315e-13</v>
+        <v>2.98954026e-13</v>
       </c>
       <c r="C711" t="n">
-        <v>4.722920280000001e-15</v>
+        <v>8.55053082e-15</v>
       </c>
     </row>
     <row r="712">
       <c r="A712" s="1" t="n">
-        <v>3.19392</v>
+        <v>3.08506</v>
       </c>
       <c r="B712" t="n">
-        <v>1.590446376e-13</v>
+        <v>3.0569364e-13</v>
       </c>
       <c r="C712" t="n">
-        <v>8.007885359999999e-15</v>
+        <v>9.026965620000001e-15</v>
       </c>
     </row>
     <row r="713">
       <c r="A713" s="1" t="n">
-        <v>3.19493</v>
+        <v>3.08579</v>
       </c>
       <c r="B713" t="n">
-        <v>1.7371287e-13</v>
+        <v>2.93097114e-13</v>
       </c>
       <c r="C713" t="n">
-        <v>1.029288204e-14</v>
+        <v>8.171978219999999e-15</v>
       </c>
     </row>
     <row r="714">
       <c r="A714" s="1" t="n">
-        <v>3.1959</v>
+        <v>3.08604</v>
       </c>
       <c r="B714" t="n">
-        <v>1.65344022e-13</v>
+        <v>2.9511243e-13</v>
       </c>
       <c r="C714" t="n">
-        <v>9.39271824e-15</v>
+        <v>9.79826454e-15</v>
       </c>
     </row>
     <row r="715">
       <c r="A715" s="1" t="n">
-        <v>3.19699</v>
+        <v>3.08798</v>
       </c>
       <c r="B715" t="n">
-        <v>1.455138252e-13</v>
+        <v>3.10518864e-13</v>
       </c>
       <c r="C715" t="n">
-        <v>8.667717119999999e-15</v>
+        <v>8.7507648e-15</v>
       </c>
     </row>
     <row r="716">
       <c r="A716" s="1" t="n">
-        <v>3.1976</v>
+        <v>3.08898</v>
       </c>
       <c r="B716" t="n">
-        <v>1.340290872e-13</v>
+        <v>2.97078084e-13</v>
       </c>
       <c r="C716" t="n">
-        <v>6.124446e-15</v>
+        <v>8.04232836e-15</v>
       </c>
     </row>
     <row r="717">
       <c r="A717" s="1" t="n">
+        <v>3.08959</v>
+      </c>
+      <c r="B717" t="n">
+        <v>2.98326042e-13</v>
+      </c>
+      <c r="C717" t="n">
+        <v>7.336631339999999e-15</v>
+      </c>
+    </row>
+    <row r="718">
+      <c r="A718" s="1" t="n">
+        <v>3.08998</v>
+      </c>
+      <c r="B718" t="n">
+        <v>3.03101604e-13</v>
+      </c>
+      <c r="C718" t="n">
+        <v>8.445567780000001e-15</v>
+      </c>
+    </row>
+    <row r="719">
+      <c r="A719" s="1" t="n">
+        <v>3.09102</v>
+      </c>
+      <c r="B719" t="n">
+        <v>3.1427235e-13</v>
+      </c>
+      <c r="C719" t="n">
+        <v>7.850360700000001e-15</v>
+      </c>
+    </row>
+    <row r="720">
+      <c r="A720" s="1" t="n">
+        <v>3.09197</v>
+      </c>
+      <c r="B720" t="n">
+        <v>3.1208562e-13</v>
+      </c>
+      <c r="C720" t="n">
+        <v>9.25433748e-15</v>
+      </c>
+    </row>
+    <row r="721">
+      <c r="A721" s="1" t="n">
+        <v>3.09305</v>
+      </c>
+      <c r="B721" t="n">
+        <v>3.17506788e-13</v>
+      </c>
+      <c r="C721" t="n">
+        <v>8.55802818e-15</v>
+      </c>
+    </row>
+    <row r="722">
+      <c r="A722" s="1" t="n">
+        <v>3.0937</v>
+      </c>
+      <c r="B722" t="n">
+        <v>3.11875758e-13</v>
+      </c>
+      <c r="C722" t="n">
+        <v>7.800586560000001e-15</v>
+      </c>
+    </row>
+    <row r="723">
+      <c r="A723" s="1" t="n">
+        <v>3.09412</v>
+      </c>
+      <c r="B723" t="n">
+        <v>3.18182832e-13</v>
+      </c>
+      <c r="C723" t="n">
+        <v>9.005947380000002e-15</v>
+      </c>
+    </row>
+    <row r="724">
+      <c r="A724" s="1" t="n">
+        <v>3.09509</v>
+      </c>
+      <c r="B724" t="n">
+        <v>3.49042158e-13</v>
+      </c>
+      <c r="C724" t="n">
+        <v>9.390795839999999e-15</v>
+      </c>
+    </row>
+    <row r="725">
+      <c r="A725" s="1" t="n">
+        <v>3.09597</v>
+      </c>
+      <c r="B725" t="n">
+        <v>3.29941512e-13</v>
+      </c>
+      <c r="C725" t="n">
+        <v>1.142110656e-14</v>
+      </c>
+    </row>
+    <row r="726">
+      <c r="A726" s="1" t="n">
+        <v>3.09784</v>
+      </c>
+      <c r="B726" t="n">
+        <v>3.69788058e-13</v>
+      </c>
+      <c r="C726" t="n">
+        <v>8.75923938e-15</v>
+      </c>
+    </row>
+    <row r="727">
+      <c r="A727" s="1" t="n">
+        <v>3.09799</v>
+      </c>
+      <c r="B727" t="n">
+        <v>3.47324814e-13</v>
+      </c>
+      <c r="C727" t="n">
+        <v>9.161053019999999e-15</v>
+      </c>
+    </row>
+    <row r="728">
+      <c r="A728" s="1" t="n">
+        <v>3.09899</v>
+      </c>
+      <c r="B728" t="n">
+        <v>4.10610222e-13</v>
+      </c>
+      <c r="C728" t="n">
+        <v>7.994813039999999e-15</v>
+      </c>
+    </row>
+    <row r="729">
+      <c r="A729" s="1" t="n">
+        <v>3.09945</v>
+      </c>
+      <c r="B729" t="n">
+        <v>4.36178142e-13</v>
+      </c>
+      <c r="C729" t="n">
+        <v>7.85854692e-15</v>
+      </c>
+    </row>
+    <row r="730">
+      <c r="A730" s="1" t="n">
+        <v>3.0996</v>
+      </c>
+      <c r="B730" t="n">
+        <v>4.00881276e-13</v>
+      </c>
+      <c r="C730" t="n">
+        <v>1.164895902e-14</v>
+      </c>
+    </row>
+    <row r="731">
+      <c r="A731" s="1" t="n">
+        <v>3.09994</v>
+      </c>
+      <c r="B731" t="n">
+        <v>4.071787380000001e-13</v>
+      </c>
+      <c r="C731" t="n">
+        <v>9.088578539999999e-15</v>
+      </c>
+    </row>
+    <row r="732">
+      <c r="A732" s="1" t="n">
+        <v>3.09997</v>
+      </c>
+      <c r="B732" t="n">
+        <v>5.20034832e-13</v>
+      </c>
+      <c r="C732" t="n">
+        <v>1.0826316e-14</v>
+      </c>
+    </row>
+    <row r="733">
+      <c r="A733" s="1" t="n">
+        <v>3.1005</v>
+      </c>
+      <c r="B733" t="n">
+        <v>7.4270322e-13</v>
+      </c>
+      <c r="C733" t="n">
+        <v>2.15400114e-14</v>
+      </c>
+    </row>
+    <row r="734">
+      <c r="A734" s="1" t="n">
+        <v>3.10065</v>
+      </c>
+      <c r="B734" t="n">
+        <v>4.9388058e-13</v>
+      </c>
+      <c r="C734" t="n">
+        <v>1.109229606e-14</v>
+      </c>
+    </row>
+    <row r="735">
+      <c r="A735" s="1" t="n">
+        <v>3.1007</v>
+      </c>
+      <c r="B735" t="n">
+        <v>8.78805936e-13</v>
+      </c>
+      <c r="C735" t="n">
+        <v>1.332793512e-14</v>
+      </c>
+    </row>
+    <row r="736">
+      <c r="A736" s="1" t="n">
+        <v>3.10126</v>
+      </c>
+      <c r="B736" t="n">
+        <v>6.65051076e-13</v>
+      </c>
+      <c r="C736" t="n">
+        <v>1.179690372e-14</v>
+      </c>
+    </row>
+    <row r="737">
+      <c r="A737" s="1" t="n">
+        <v>3.10145</v>
+      </c>
+      <c r="B737" t="n">
+        <v>7.16818104e-13</v>
+      </c>
+      <c r="C737" t="n">
+        <v>1.41647238e-14</v>
+      </c>
+    </row>
+    <row r="738">
+      <c r="A738" s="1" t="n">
+        <v>3.10175</v>
+      </c>
+      <c r="B738" t="n">
+        <v>9.443037060000001e-13</v>
+      </c>
+      <c r="C738" t="n">
+        <v>1.365091434e-14</v>
+      </c>
+    </row>
+    <row r="739">
+      <c r="A739" s="1" t="n">
+        <v>3.10211</v>
+      </c>
+      <c r="B739" t="n">
+        <v>1.373272848e-12</v>
+      </c>
+      <c r="C739" t="n">
+        <v>1.78605378e-14</v>
+      </c>
+    </row>
+    <row r="740">
+      <c r="A740" s="1" t="n">
+        <v>3.10231</v>
+      </c>
+      <c r="B740" t="n">
+        <v>1.6355619e-12</v>
+      </c>
+      <c r="C740" t="n">
+        <v>1.86778782e-14</v>
+      </c>
+    </row>
+    <row r="741">
+      <c r="A741" s="1" t="n">
+        <v>3.10248</v>
+      </c>
+      <c r="B741" t="n">
+        <v>1.72104462e-12</v>
+      </c>
+      <c r="C741" t="n">
+        <v>1.91208312e-14</v>
+      </c>
+    </row>
+    <row r="742">
+      <c r="A742" s="1" t="n">
+        <v>3.10267</v>
+      </c>
+      <c r="B742" t="n">
+        <v>1.63705176e-12</v>
+      </c>
+      <c r="C742" t="n">
+        <v>2.07742554e-14</v>
+      </c>
+    </row>
+    <row r="743">
+      <c r="A743" s="1" t="n">
+        <v>3.10301</v>
+      </c>
+      <c r="B743" t="n">
+        <v>1.39378806e-12</v>
+      </c>
+      <c r="C743" t="n">
+        <v>1.97331156e-14</v>
+      </c>
+    </row>
+    <row r="744">
+      <c r="A744" s="1" t="n">
+        <v>3.10353</v>
+      </c>
+      <c r="B744" t="n">
+        <v>9.1496628e-13</v>
+      </c>
+      <c r="C744" t="n">
+        <v>1.407475548e-14</v>
+      </c>
+    </row>
+    <row r="745">
+      <c r="A745" s="1" t="n">
+        <v>3.10401</v>
+      </c>
+      <c r="B745" t="n">
+        <v>6.51249846e-13</v>
+      </c>
+      <c r="C745" t="n">
+        <v>1.246504986e-14</v>
+      </c>
+    </row>
+    <row r="746">
+      <c r="A746" s="1" t="n">
+        <v>3.10453</v>
+      </c>
+      <c r="B746" t="n">
+        <v>5.642724600000001e-13</v>
+      </c>
+      <c r="C746" t="n">
+        <v>1.167327738e-14</v>
+      </c>
+    </row>
+    <row r="747">
+      <c r="A747" s="1" t="n">
+        <v>3.10489</v>
+      </c>
+      <c r="B747" t="n">
+        <v>4.079156580000001e-13</v>
+      </c>
+      <c r="C747" t="n">
+        <v>9.05411952e-15</v>
+      </c>
+    </row>
+    <row r="748">
+      <c r="A748" s="1" t="n">
+        <v>3.10506</v>
+      </c>
+      <c r="B748" t="n">
+        <v>4.7662704e-13</v>
+      </c>
+      <c r="C748" t="n">
+        <v>9.09019656e-15</v>
+      </c>
+    </row>
+    <row r="749">
+      <c r="A749" s="1" t="n">
+        <v>3.10538</v>
+      </c>
+      <c r="B749" t="n">
+        <v>4.36586652e-13</v>
+      </c>
+      <c r="C749" t="n">
+        <v>9.5358249e-15</v>
+      </c>
+    </row>
+    <row r="750">
+      <c r="A750" s="1" t="n">
+        <v>3.10592</v>
+      </c>
+      <c r="B750" t="n">
+        <v>4.13021232e-13</v>
+      </c>
+      <c r="C750" t="n">
+        <v>9.77280876e-15</v>
+      </c>
+    </row>
+    <row r="751">
+      <c r="A751" s="1" t="n">
+        <v>3.10658</v>
+      </c>
+      <c r="B751" t="n">
+        <v>4.07870802e-13</v>
+      </c>
+      <c r="C751" t="n">
+        <v>1.040652792e-14</v>
+      </c>
+    </row>
+    <row r="752">
+      <c r="A752" s="1" t="n">
+        <v>3.10709</v>
+      </c>
+      <c r="B752" t="n">
+        <v>4.1160987e-13</v>
+      </c>
+      <c r="C752" t="n">
+        <v>1.081593504e-14</v>
+      </c>
+    </row>
+    <row r="753">
+      <c r="A753" s="1" t="n">
+        <v>3.10745</v>
+      </c>
+      <c r="B753" t="n">
+        <v>3.87650358e-13</v>
+      </c>
+      <c r="C753" t="n">
+        <v>1.06165341e-14</v>
+      </c>
+    </row>
+    <row r="754">
+      <c r="A754" s="1" t="n">
+        <v>3.10784</v>
+      </c>
+      <c r="B754" t="n">
+        <v>3.73831506e-13</v>
+      </c>
+      <c r="C754" t="n">
+        <v>1.07973198e-14</v>
+      </c>
+    </row>
+    <row r="755">
+      <c r="A755" s="1" t="n">
+        <v>3.10882</v>
+      </c>
+      <c r="B755" t="n">
+        <v>4.09112352e-13</v>
+      </c>
+      <c r="C755" t="n">
+        <v>9.562994820000001e-15</v>
+      </c>
+    </row>
+    <row r="756">
+      <c r="A756" s="1" t="n">
+        <v>3.112</v>
+      </c>
+      <c r="B756" t="n">
+        <v>3.83408262e-13</v>
+      </c>
+      <c r="C756" t="n">
+        <v>1.214714898e-14</v>
+      </c>
+    </row>
+    <row r="757">
+      <c r="A757" s="1" t="n">
+        <v>3.11278</v>
+      </c>
+      <c r="B757" t="n">
+        <v>4.2054903e-13</v>
+      </c>
+      <c r="C757" t="n">
+        <v>9.83145798e-15</v>
+      </c>
+    </row>
+    <row r="758">
+      <c r="A758" s="1" t="n">
+        <v>3.11559</v>
+      </c>
+      <c r="B758" t="n">
+        <v>4.50344628e-13</v>
+      </c>
+      <c r="C758" t="n">
+        <v>1.136993868e-14</v>
+      </c>
+    </row>
+    <row r="759">
+      <c r="A759" s="1" t="n">
+        <v>3.11669</v>
+      </c>
+      <c r="B759" t="n">
+        <v>4.50349434e-13</v>
+      </c>
+      <c r="C759" t="n">
+        <v>9.93771864e-15</v>
+      </c>
+    </row>
+    <row r="760">
+      <c r="A760" s="1" t="n">
+        <v>3.12001</v>
+      </c>
+      <c r="B760" t="n">
+        <v>5.182469999999999e-13</v>
+      </c>
+      <c r="C760" t="n">
+        <v>1.259441136e-14</v>
+      </c>
+    </row>
+    <row r="761">
+      <c r="A761" s="1" t="n">
+        <v>3.12075</v>
+      </c>
+      <c r="B761" t="n">
+        <v>4.99809582e-13</v>
+      </c>
+      <c r="C761" t="n">
+        <v>8.91629946e-15</v>
+      </c>
+    </row>
+    <row r="762">
+      <c r="A762" s="1" t="n">
+        <v>3.124</v>
+      </c>
+      <c r="B762" t="n">
+        <v>5.21071326e-13</v>
+      </c>
+      <c r="C762" t="n">
+        <v>1.222119342e-14</v>
+      </c>
+    </row>
+    <row r="763">
+      <c r="A763" s="1" t="n">
+        <v>3.12473</v>
+      </c>
+      <c r="B763" t="n">
+        <v>4.964998500000001e-13</v>
+      </c>
+      <c r="C763" t="n">
+        <v>1.089057222e-14</v>
+      </c>
+    </row>
+    <row r="764">
+      <c r="A764" s="1" t="n">
+        <v>3.12789</v>
+      </c>
+      <c r="B764" t="n">
+        <v>4.65935292e-13</v>
+      </c>
+      <c r="C764" t="n">
+        <v>9.910452599999999e-15</v>
+      </c>
+    </row>
+    <row r="765">
+      <c r="A765" s="1" t="n">
+        <v>3.12882</v>
+      </c>
+      <c r="B765" t="n">
+        <v>4.49266482e-13</v>
+      </c>
+      <c r="C765" t="n">
+        <v>9.519164100000001e-15</v>
+      </c>
+    </row>
+    <row r="766">
+      <c r="A766" s="1" t="n">
+        <v>3.13272</v>
+      </c>
+      <c r="B766" t="n">
+        <v>4.30061706e-13</v>
+      </c>
+      <c r="C766" t="n">
+        <v>1.311640704e-14</v>
+      </c>
+    </row>
+    <row r="767">
+      <c r="A767" s="1" t="n">
+        <v>3.1349</v>
+      </c>
+      <c r="B767" t="n">
+        <v>4.03412436e-13</v>
+      </c>
+      <c r="C767" t="n">
+        <v>8.70183972e-15</v>
+      </c>
+    </row>
+    <row r="768">
+      <c r="A768" s="1" t="n">
+        <v>3.13676</v>
+      </c>
+      <c r="B768" t="n">
+        <v>3.670983e-13</v>
+      </c>
+      <c r="C768" t="n">
+        <v>9.70308972e-15</v>
+      </c>
+    </row>
+    <row r="769">
+      <c r="A769" s="1" t="n">
+        <v>3.13895</v>
+      </c>
+      <c r="B769" t="n">
+        <v>3.870319860000001e-13</v>
+      </c>
+      <c r="C769" t="n">
+        <v>8.582955299999999e-15</v>
+      </c>
+    </row>
+    <row r="770">
+      <c r="A770" s="1" t="n">
+        <v>3.14093</v>
+      </c>
+      <c r="B770" t="n">
+        <v>3.09288528e-13</v>
+      </c>
+      <c r="C770" t="n">
+        <v>8.29228842e-15</v>
+      </c>
+    </row>
+    <row r="771">
+      <c r="A771" s="1" t="n">
+        <v>3.14273</v>
+      </c>
+      <c r="B771" t="n">
+        <v>3.29473728e-13</v>
+      </c>
+      <c r="C771" t="n">
+        <v>8.089571339999998e-15</v>
+      </c>
+    </row>
+    <row r="772">
+      <c r="A772" s="1" t="n">
+        <v>3.14278</v>
+      </c>
+      <c r="B772" t="n">
+        <v>3.0024684e-13</v>
+      </c>
+      <c r="C772" t="n">
+        <v>7.61321664e-15</v>
+      </c>
+    </row>
+    <row r="773">
+      <c r="A773" s="1" t="n">
+        <v>3.1468</v>
+      </c>
+      <c r="B773" t="n">
+        <v>2.57173866e-13</v>
+      </c>
+      <c r="C773" t="n">
+        <v>9.107017560000001e-15</v>
+      </c>
+    </row>
+    <row r="774">
+      <c r="A774" s="1" t="n">
+        <v>3.14764</v>
+      </c>
+      <c r="B774" t="n">
+        <v>2.45190906e-13</v>
+      </c>
+      <c r="C774" t="n">
+        <v>9.33515838e-15</v>
+      </c>
+    </row>
+    <row r="775">
+      <c r="A775" s="1" t="n">
+        <v>3.15086</v>
+      </c>
+      <c r="B775" t="n">
+        <v>2.26992186e-13</v>
+      </c>
+      <c r="C775" t="n">
+        <v>8.786585520000001e-15</v>
+      </c>
+    </row>
+    <row r="776">
+      <c r="A776" s="1" t="n">
+        <v>3.15204</v>
+      </c>
+      <c r="B776" t="n">
+        <v>2.54082006e-13</v>
+      </c>
+      <c r="C776" t="n">
+        <v>9.38204892e-15</v>
+      </c>
+    </row>
+    <row r="777">
+      <c r="A777" s="1" t="n">
+        <v>3.1529</v>
+      </c>
+      <c r="B777" t="n">
+        <v>2.32805844e-13</v>
+      </c>
+      <c r="C777" t="n">
+        <v>8.4174687e-15</v>
+      </c>
+    </row>
+    <row r="778">
+      <c r="A778" s="1" t="n">
+        <v>3.15511</v>
+      </c>
+      <c r="B778" t="n">
+        <v>2.27386278e-13</v>
+      </c>
+      <c r="C778" t="n">
+        <v>9.8121699e-15</v>
+      </c>
+    </row>
+    <row r="779">
+      <c r="A779" s="1" t="n">
+        <v>3.15609</v>
+      </c>
+      <c r="B779" t="n">
+        <v>2.15443368e-13</v>
+      </c>
+      <c r="C779" t="n">
+        <v>1.088881002e-14</v>
+      </c>
+    </row>
+    <row r="780">
+      <c r="A780" s="1" t="n">
+        <v>3.157</v>
+      </c>
+      <c r="B780" t="n">
+        <v>2.26807956e-13</v>
+      </c>
+      <c r="C780" t="n">
+        <v>5.8596354e-15</v>
+      </c>
+    </row>
+    <row r="781">
+      <c r="A781" s="1" t="n">
+        <v>3.157</v>
+      </c>
+      <c r="B781" t="n">
+        <v>2.26425078e-13</v>
+      </c>
+      <c r="C781" t="n">
+        <v>7.13966544e-15</v>
+      </c>
+    </row>
+    <row r="782">
+      <c r="A782" s="1" t="n">
+        <v>3.15782</v>
+      </c>
+      <c r="B782" t="n">
+        <v>2.312631180000001e-13</v>
+      </c>
+      <c r="C782" t="n">
+        <v>8.54767926e-15</v>
+      </c>
+    </row>
+    <row r="783">
+      <c r="A783" s="1" t="n">
+        <v>3.15821</v>
+      </c>
+      <c r="B783" t="n">
+        <v>2.55933918e-13</v>
+      </c>
+      <c r="C783" t="n">
+        <v>1.125710982e-14</v>
+      </c>
+    </row>
+    <row r="784">
+      <c r="A784" s="1" t="n">
+        <v>3.15836</v>
+      </c>
+      <c r="B784" t="n">
+        <v>2.16857934e-13</v>
+      </c>
+      <c r="C784" t="n">
+        <v>6.25904604e-15</v>
+      </c>
+    </row>
+    <row r="785">
+      <c r="A785" s="1" t="n">
+        <v>3.15887</v>
+      </c>
+      <c r="B785" t="n">
+        <v>2.39228262e-13</v>
+      </c>
+      <c r="C785" t="n">
+        <v>7.93065294e-15</v>
+      </c>
+    </row>
+    <row r="786">
+      <c r="A786" s="1" t="n">
+        <v>3.15905</v>
+      </c>
+      <c r="B786" t="n">
+        <v>2.46615084e-13</v>
+      </c>
+      <c r="C786" t="n">
+        <v>1.206325224e-14</v>
+      </c>
+    </row>
+    <row r="787">
+      <c r="A787" s="1" t="n">
+        <v>3.15919</v>
+      </c>
+      <c r="B787" t="n">
+        <v>3.22407306e-13</v>
+      </c>
+      <c r="C787" t="n">
+        <v>1.290077784e-14</v>
+      </c>
+    </row>
+    <row r="788">
+      <c r="A788" s="1" t="n">
+        <v>3.15956</v>
+      </c>
+      <c r="B788" t="n">
+        <v>5.52315132e-13</v>
+      </c>
+      <c r="C788" t="n">
+        <v>1.5828561e-14</v>
+      </c>
+    </row>
+    <row r="789">
+      <c r="A789" s="1" t="n">
+        <v>3.15976</v>
+      </c>
+      <c r="B789" t="n">
+        <v>1.076172336e-12</v>
+      </c>
+      <c r="C789" t="n">
+        <v>2.01810348e-14</v>
+      </c>
+    </row>
+    <row r="790">
+      <c r="A790" s="1" t="n">
+        <v>3.15981</v>
+      </c>
+      <c r="B790" t="n">
+        <v>2.96166546e-13</v>
+      </c>
+      <c r="C790" t="n">
+        <v>1.043584452e-14</v>
+      </c>
+    </row>
+    <row r="791">
+      <c r="A791" s="1" t="n">
+        <v>3.16079</v>
+      </c>
+      <c r="B791" t="n">
+        <v>8.542793160000001e-13</v>
+      </c>
+      <c r="C791" t="n">
+        <v>1.82974032e-14</v>
+      </c>
+    </row>
+    <row r="792">
+      <c r="A792" s="1" t="n">
+        <v>3.16087</v>
+      </c>
+      <c r="B792" t="n">
+        <v>8.05400694e-13</v>
+      </c>
+      <c r="C792" t="n">
+        <v>1.219596192e-14</v>
+      </c>
+    </row>
+    <row r="793">
+      <c r="A793" s="1" t="n">
+        <v>3.16166</v>
+      </c>
+      <c r="B793" t="n">
+        <v>3.23597592e-13</v>
+      </c>
+      <c r="C793" t="n">
+        <v>5.89230018e-15</v>
+      </c>
+    </row>
+    <row r="794">
+      <c r="A794" s="1" t="n">
+        <v>3.16183</v>
+      </c>
+      <c r="B794" t="n">
+        <v>3.16920456e-13</v>
+      </c>
+      <c r="C794" t="n">
+        <v>1.26694971e-14</v>
+      </c>
+    </row>
+    <row r="795">
+      <c r="A795" s="1" t="n">
+        <v>3.16249</v>
+      </c>
+      <c r="B795" t="n">
+        <v>2.89484604e-13</v>
+      </c>
+      <c r="C795" t="n">
+        <v>7.7605686e-15</v>
+      </c>
+    </row>
+    <row r="796">
+      <c r="A796" s="1" t="n">
+        <v>3.16301</v>
+      </c>
+      <c r="B796" t="n">
+        <v>2.70939852e-13</v>
+      </c>
+      <c r="C796" t="n">
+        <v>1.1228418e-14</v>
+      </c>
+    </row>
+    <row r="797">
+      <c r="A797" s="1" t="n">
+        <v>3.16316</v>
+      </c>
+      <c r="B797" t="n">
+        <v>2.65550724e-13</v>
+      </c>
+      <c r="C797" t="n">
+        <v>6.95738988e-15</v>
+      </c>
+    </row>
+    <row r="798">
+      <c r="A798" s="1" t="n">
+        <v>3.1637</v>
+      </c>
+      <c r="B798" t="n">
+        <v>2.722342680000001e-13</v>
+      </c>
+      <c r="C798" t="n">
+        <v>1.169530488e-14</v>
+      </c>
+    </row>
+    <row r="799">
+      <c r="A799" s="1" t="n">
+        <v>3.16392</v>
+      </c>
+      <c r="B799" t="n">
+        <v>2.448240479999999e-13</v>
+      </c>
+      <c r="C799" t="n">
+        <v>5.77926306e-15</v>
+      </c>
+    </row>
+    <row r="800">
+      <c r="A800" s="1" t="n">
+        <v>3.16488</v>
+      </c>
+      <c r="B800" t="n">
+        <v>2.5919559e-13</v>
+      </c>
+      <c r="C800" t="n">
+        <v>1.219303026e-14</v>
+      </c>
+    </row>
+    <row r="801">
+      <c r="A801" s="1" t="n">
+        <v>3.16525</v>
+      </c>
+      <c r="B801" t="n">
+        <v>2.56917546e-13</v>
+      </c>
+      <c r="C801" t="n">
+        <v>5.51925846e-15</v>
+      </c>
+    </row>
+    <row r="802">
+      <c r="A802" s="1" t="n">
+        <v>3.16592</v>
+      </c>
+      <c r="B802" t="n">
+        <v>2.64965994e-13</v>
+      </c>
+      <c r="C802" t="n">
+        <v>1.247246712e-14</v>
+      </c>
+    </row>
+    <row r="803">
+      <c r="A803" s="1" t="n">
+        <v>3.16661</v>
+      </c>
+      <c r="B803" t="n">
+        <v>2.68536852e-13</v>
+      </c>
+      <c r="C803" t="n">
+        <v>8.145417060000002e-15</v>
+      </c>
+    </row>
+    <row r="804">
+      <c r="A804" s="1" t="n">
+        <v>3.1671</v>
+      </c>
+      <c r="B804" t="n">
+        <v>2.825559540000001e-13</v>
+      </c>
+      <c r="C804" t="n">
+        <v>1.228442436e-14</v>
+      </c>
+    </row>
+    <row r="805">
+      <c r="A805" s="1" t="n">
+        <v>3.16764</v>
+      </c>
+      <c r="B805" t="n">
+        <v>2.77043472e-13</v>
+      </c>
+      <c r="C805" t="n">
+        <v>7.60680864e-15</v>
+      </c>
+    </row>
+    <row r="806">
+      <c r="A806" s="1" t="n">
+        <v>3.16808</v>
+      </c>
+      <c r="B806" t="n">
+        <v>3.19599e-13</v>
+      </c>
+      <c r="C806" t="n">
+        <v>1.27946934e-14</v>
+      </c>
+    </row>
+    <row r="807">
+      <c r="A807" s="1" t="n">
+        <v>3.1689</v>
+      </c>
+      <c r="B807" t="n">
+        <v>3.13754904e-13</v>
+      </c>
+      <c r="C807" t="n">
+        <v>7.81593372e-15</v>
+      </c>
+    </row>
+    <row r="808">
+      <c r="A808" s="1" t="n">
+        <v>3.16897</v>
+      </c>
+      <c r="B808" t="n">
+        <v>3.30465366e-13</v>
+      </c>
+      <c r="C808" t="n">
+        <v>1.354444542e-14</v>
+      </c>
+    </row>
+    <row r="809">
+      <c r="A809" s="1" t="n">
+        <v>3.17003</v>
+      </c>
+      <c r="B809" t="n">
+        <v>4.02778044e-13</v>
+      </c>
+      <c r="C809" t="n">
+        <v>1.445221872e-14</v>
+      </c>
+    </row>
+    <row r="810">
+      <c r="A810" s="1" t="n">
+        <v>3.17043</v>
+      </c>
+      <c r="B810" t="n">
+        <v>3.82531968e-13</v>
+      </c>
+      <c r="C810" t="n">
+        <v>9.1627191e-15</v>
+      </c>
+    </row>
+    <row r="811">
+      <c r="A811" s="1" t="n">
+        <v>3.17104</v>
+      </c>
+      <c r="B811" t="n">
+        <v>4.275049140000001e-13</v>
+      </c>
+      <c r="C811" t="n">
+        <v>1.431545598e-14</v>
+      </c>
+    </row>
+    <row r="812">
+      <c r="A812" s="1" t="n">
+        <v>3.172</v>
+      </c>
+      <c r="B812" t="n">
+        <v>5.24507616e-13</v>
+      </c>
+      <c r="C812" t="n">
+        <v>1.451583414e-14</v>
+      </c>
+    </row>
+    <row r="813">
+      <c r="A813" s="1" t="n">
+        <v>3.17279</v>
+      </c>
+      <c r="B813" t="n">
+        <v>5.54482638e-13</v>
+      </c>
+      <c r="C813" t="n">
+        <v>1.193067072e-14</v>
+      </c>
+    </row>
+    <row r="814">
+      <c r="A814" s="1" t="n">
+        <v>3.17292</v>
+      </c>
+      <c r="B814" t="n">
+        <v>6.25673916e-13</v>
+      </c>
+      <c r="C814" t="n">
+        <v>1.581449544e-14</v>
+      </c>
+    </row>
+    <row r="815">
+      <c r="A815" s="1" t="n">
+        <v>3.17383</v>
+      </c>
+      <c r="B815" t="n">
+        <v>6.82248546e-13</v>
+      </c>
+      <c r="C815" t="n">
+        <v>9.80805276e-15</v>
+      </c>
+    </row>
+    <row r="816">
+      <c r="A816" s="1" t="n">
+        <v>3.17405</v>
+      </c>
+      <c r="B816" t="n">
+        <v>7.29834354e-13</v>
+      </c>
+      <c r="C816" t="n">
+        <v>1.75662504e-14</v>
+      </c>
+    </row>
+    <row r="817">
+      <c r="A817" s="1" t="n">
+        <v>3.17462</v>
+      </c>
+      <c r="B817" t="n">
+        <v>8.18663652e-13</v>
+      </c>
+      <c r="C817" t="n">
+        <v>1.74771792e-14</v>
+      </c>
+    </row>
+    <row r="818">
+      <c r="A818" s="1" t="n">
+        <v>3.17484</v>
+      </c>
+      <c r="B818" t="n">
+        <v>8.1988758e-13</v>
+      </c>
+      <c r="C818" t="n">
+        <v>1.383011406e-14</v>
+      </c>
+    </row>
+    <row r="819">
+      <c r="A819" s="1" t="n">
+        <v>3.17509</v>
+      </c>
+      <c r="B819" t="n">
+        <v>8.73272628e-13</v>
+      </c>
+      <c r="C819" t="n">
+        <v>1.8841122e-14</v>
+      </c>
+    </row>
+    <row r="820">
+      <c r="A820" s="1" t="n">
+        <v>3.17593</v>
+      </c>
+      <c r="B820" t="n">
+        <v>1.029911382e-12</v>
+      </c>
+      <c r="C820" t="n">
+        <v>1.96687152e-14</v>
+      </c>
+    </row>
+    <row r="821">
+      <c r="A821" s="1" t="n">
+        <v>3.17709</v>
+      </c>
+      <c r="B821" t="n">
+        <v>1.061778366e-12</v>
+      </c>
+      <c r="C821" t="n">
+        <v>2.02963788e-14</v>
+      </c>
+    </row>
+    <row r="822">
+      <c r="A822" s="1" t="n">
+        <v>3.17728</v>
+      </c>
+      <c r="B822" t="n">
+        <v>9.209946059999999e-13</v>
+      </c>
+      <c r="C822" t="n">
+        <v>1.279927512e-14</v>
+      </c>
+    </row>
+    <row r="823">
+      <c r="A823" s="1" t="n">
+        <v>3.17763</v>
+      </c>
+      <c r="B823" t="n">
+        <v>1.096053156e-12</v>
+      </c>
+      <c r="C823" t="n">
+        <v>2.02686642e-14</v>
+      </c>
+    </row>
+    <row r="824">
+      <c r="A824" s="1" t="n">
+        <v>3.17783</v>
+      </c>
+      <c r="B824" t="n">
+        <v>1.048912704e-12</v>
+      </c>
+      <c r="C824" t="n">
+        <v>2.07990864e-14</v>
+      </c>
+    </row>
+    <row r="825">
+      <c r="A825" s="1" t="n">
+        <v>3.17815</v>
+      </c>
+      <c r="B825" t="n">
+        <v>9.452136420000001e-13</v>
+      </c>
+      <c r="C825" t="n">
+        <v>1.69898508e-14</v>
+      </c>
+    </row>
+    <row r="826">
+      <c r="A826" s="1" t="n">
+        <v>3.17849</v>
+      </c>
+      <c r="B826" t="n">
+        <v>9.810119339999999e-13</v>
+      </c>
+      <c r="C826" t="n">
+        <v>1.99109376e-14</v>
+      </c>
+    </row>
+    <row r="827">
+      <c r="A827" s="1" t="n">
+        <v>3.17886</v>
+      </c>
+      <c r="B827" t="n">
+        <v>9.817360379999997e-13</v>
+      </c>
+      <c r="C827" t="n">
+        <v>2.01390624e-14</v>
+      </c>
+    </row>
+    <row r="828">
+      <c r="A828" s="1" t="n">
+        <v>3.17983</v>
+      </c>
+      <c r="B828" t="n">
+        <v>8.14794822e-13</v>
+      </c>
+      <c r="C828" t="n">
+        <v>1.68512778e-14</v>
+      </c>
+    </row>
+    <row r="829">
+      <c r="A829" s="1" t="n">
+        <v>3.18111</v>
+      </c>
+      <c r="B829" t="n">
+        <v>6.90431562e-13</v>
+      </c>
+      <c r="C829" t="n">
+        <v>1.73446938e-14</v>
+      </c>
+    </row>
+    <row r="830">
+      <c r="A830" s="1" t="n">
+        <v>3.18198</v>
+      </c>
+      <c r="B830" t="n">
+        <v>6.357985560000001e-13</v>
+      </c>
+      <c r="C830" t="n">
+        <v>1.70074728e-14</v>
+      </c>
+    </row>
+    <row r="831">
+      <c r="A831" s="1" t="n">
+        <v>3.18299</v>
+      </c>
+      <c r="B831" t="n">
+        <v>5.2881219e-13</v>
+      </c>
+      <c r="C831" t="n">
+        <v>1.470305988e-14</v>
+      </c>
+    </row>
+    <row r="832">
+      <c r="A832" s="1" t="n">
+        <v>3.18385</v>
+      </c>
+      <c r="B832" t="n">
+        <v>3.37600674e-13</v>
+      </c>
+      <c r="C832" t="n">
+        <v>6.580439279999999e-15</v>
+      </c>
+    </row>
+    <row r="833">
+      <c r="A833" s="1" t="n">
+        <v>3.18385</v>
+      </c>
+      <c r="B833" t="n">
+        <v>4.82711436e-13</v>
+      </c>
+      <c r="C833" t="n">
+        <v>1.121246208e-14</v>
+      </c>
+    </row>
+    <row r="834">
+      <c r="A834" s="1" t="n">
+        <v>3.18398</v>
+      </c>
+      <c r="B834" t="n">
+        <v>4.37299542e-13</v>
+      </c>
+      <c r="C834" t="n">
+        <v>1.451232576e-14</v>
+      </c>
+    </row>
+    <row r="835">
+      <c r="A835" s="1" t="n">
+        <v>3.18499</v>
+      </c>
+      <c r="B835" t="n">
+        <v>4.00881276e-13</v>
+      </c>
+      <c r="C835" t="n">
+        <v>1.371781386e-14</v>
+      </c>
+    </row>
+    <row r="836">
+      <c r="A836" s="1" t="n">
+        <v>3.186</v>
+      </c>
+      <c r="B836" t="n">
+        <v>3.32977302e-13</v>
+      </c>
+      <c r="C836" t="n">
+        <v>1.17096588e-14</v>
+      </c>
+    </row>
+    <row r="837">
+      <c r="A837" s="1" t="n">
+        <v>3.18704</v>
+      </c>
+      <c r="B837" t="n">
+        <v>2.9655423e-13</v>
+      </c>
+      <c r="C837" t="n">
+        <v>1.199896398e-14</v>
+      </c>
+    </row>
+    <row r="838">
+      <c r="A838" s="1" t="n">
+        <v>3.18805</v>
+      </c>
+      <c r="B838" t="n">
+        <v>2.58428232e-13</v>
+      </c>
+      <c r="C838" t="n">
+        <v>1.137601026e-14</v>
+      </c>
+    </row>
+    <row r="839">
+      <c r="A839" s="1" t="n">
+        <v>3.18892</v>
+      </c>
+      <c r="B839" t="n">
+        <v>2.31006798e-13</v>
+      </c>
+      <c r="C839" t="n">
+        <v>1.122688008e-14</v>
+      </c>
+    </row>
+    <row r="840">
+      <c r="A840" s="1" t="n">
+        <v>3.18983</v>
+      </c>
+      <c r="B840" t="n">
+        <v>2.18604114e-13</v>
+      </c>
+      <c r="C840" t="n">
+        <v>3.56835888e-15</v>
+      </c>
+    </row>
+    <row r="841">
+      <c r="A841" s="1" t="n">
+        <v>3.18993</v>
+      </c>
+      <c r="B841" t="n">
+        <v>1.97845398e-13</v>
+      </c>
+      <c r="C841" t="n">
+        <v>1.04822064e-14</v>
+      </c>
+    </row>
+    <row r="842">
+      <c r="A842" s="1" t="n">
+        <v>3.191</v>
+      </c>
+      <c r="B842" t="n">
+        <v>2.08551564e-13</v>
+      </c>
+      <c r="C842" t="n">
+        <v>9.865468439999998e-15</v>
+      </c>
+    </row>
+    <row r="843">
+      <c r="A843" s="1" t="n">
+        <v>3.19196</v>
+      </c>
+      <c r="B843" t="n">
+        <v>1.8675315e-13</v>
+      </c>
+      <c r="C843" t="n">
+        <v>4.722920280000001e-15</v>
+      </c>
+    </row>
+    <row r="844">
+      <c r="A844" s="1" t="n">
+        <v>3.19199</v>
+      </c>
+      <c r="B844" t="n">
+        <v>1.536949188e-13</v>
+      </c>
+      <c r="C844" t="n">
+        <v>8.509327380000001e-15</v>
+      </c>
+    </row>
+    <row r="845">
+      <c r="A845" s="1" t="n">
+        <v>3.19298</v>
+      </c>
+      <c r="B845" t="n">
+        <v>1.95081948e-13</v>
+      </c>
+      <c r="C845" t="n">
+        <v>1.026295668e-14</v>
+      </c>
+    </row>
+    <row r="846">
+      <c r="A846" s="1" t="n">
+        <v>3.19384</v>
+      </c>
+      <c r="B846" t="n">
+        <v>1.92169512e-13</v>
+      </c>
+      <c r="C846" t="n">
+        <v>9.425447100000001e-15</v>
+      </c>
+    </row>
+    <row r="847">
+      <c r="A847" s="1" t="n">
+        <v>3.19392</v>
+      </c>
+      <c r="B847" t="n">
+        <v>1.590446376e-13</v>
+      </c>
+      <c r="C847" t="n">
+        <v>8.007885359999999e-15</v>
+      </c>
+    </row>
+    <row r="848">
+      <c r="A848" s="1" t="n">
+        <v>3.19493</v>
+      </c>
+      <c r="B848" t="n">
+        <v>1.7371287e-13</v>
+      </c>
+      <c r="C848" t="n">
+        <v>1.029288204e-14</v>
+      </c>
+    </row>
+    <row r="849">
+      <c r="A849" s="1" t="n">
+        <v>3.19501</v>
+      </c>
+      <c r="B849" t="n">
+        <v>1.493461296e-13</v>
+      </c>
+      <c r="C849" t="n">
+        <v>9.23597856e-15</v>
+      </c>
+    </row>
+    <row r="850">
+      <c r="A850" s="1" t="n">
+        <v>3.1959</v>
+      </c>
+      <c r="B850" t="n">
+        <v>1.65344022e-13</v>
+      </c>
+      <c r="C850" t="n">
+        <v>9.39271824e-15</v>
+      </c>
+    </row>
+    <row r="851">
+      <c r="A851" s="1" t="n">
+        <v>3.196</v>
+      </c>
+      <c r="B851" t="n">
+        <v>1.65861468e-13</v>
+      </c>
+      <c r="C851" t="n">
+        <v>1.04717133e-14</v>
+      </c>
+    </row>
+    <row r="852">
+      <c r="A852" s="1" t="n">
+        <v>3.19699</v>
+      </c>
+      <c r="B852" t="n">
+        <v>1.73430918e-13</v>
+      </c>
+      <c r="C852" t="n">
+        <v>1.05249798e-14</v>
+      </c>
+    </row>
+    <row r="853">
+      <c r="A853" s="1" t="n">
+        <v>3.19699</v>
+      </c>
+      <c r="B853" t="n">
+        <v>1.455138252e-13</v>
+      </c>
+      <c r="C853" t="n">
+        <v>8.667717119999999e-15</v>
+      </c>
+    </row>
+    <row r="854">
+      <c r="A854" s="1" t="n">
+        <v>3.1976</v>
+      </c>
+      <c r="B854" t="n">
+        <v>1.340290872e-13</v>
+      </c>
+      <c r="C854" t="n">
+        <v>6.124446e-15</v>
+      </c>
+    </row>
+    <row r="855">
+      <c r="A855" s="1" t="n">
+        <v>3.19795</v>
+      </c>
+      <c r="B855" t="n">
+        <v>1.390105062e-13</v>
+      </c>
+      <c r="C855" t="n">
+        <v>1.012353462e-14</v>
+      </c>
+    </row>
+    <row r="856">
+      <c r="A856" s="1" t="n">
         <v>3.19867</v>
       </c>
-      <c r="B717" t="n">
+      <c r="B856" t="n">
         <v>1.217915694e-13</v>
       </c>
-      <c r="C717" t="n">
+      <c r="C856" t="n">
         <v>8.883522539999999e-15</v>
+      </c>
+    </row>
+    <row r="857">
+      <c r="A857" s="1" t="n">
+        <v>3.19892</v>
+      </c>
+      <c r="B857" t="n">
+        <v>1.61308584e-13</v>
+      </c>
+      <c r="C857" t="n">
+        <v>1.017042516e-14</v>
+      </c>
+    </row>
+    <row r="858">
+      <c r="A858" s="1" t="n">
+        <v>3.2005</v>
+      </c>
+      <c r="B858" t="n">
+        <v>1.388078532e-13</v>
+      </c>
+      <c r="C858" t="n">
+        <v>7.959873419999999e-15</v>
       </c>
     </row>
   </sheetData>
